--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/30_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/30_11R22.xlsx
@@ -767,100 +767,100 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01339556254618188</v>
+        <v>0.0204313027191266</v>
       </c>
       <c r="M2">
-        <v>0.03580354991029035</v>
+        <v>0.03788070051153234</v>
       </c>
       <c r="N2">
-        <v>0.07678607119123629</v>
+        <v>0.06979433491104065</v>
       </c>
       <c r="O2">
-        <v>0.1072660205279442</v>
+        <v>0.09352947685067239</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0005201209457198507</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3.370964238510245E-05</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.0001578470764527272</v>
       </c>
       <c r="S2">
-        <v>0.005952018973828889</v>
+        <v>0.01463491633829824</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0006002633161860296</v>
       </c>
       <c r="U2">
-        <v>0.05719850407295976</v>
+        <v>0.0545412358763763</v>
       </c>
       <c r="V2">
-        <v>0.02295081927270881</v>
+        <v>0.02787210821943632</v>
       </c>
       <c r="W2">
-        <v>0.1612306897790239</v>
+        <v>0.1355524825404189</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00243204106758322</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.001509430912838394</v>
       </c>
       <c r="Z2">
-        <v>0.03682001935811269</v>
+        <v>0.03867223878985575</v>
       </c>
       <c r="AA2">
-        <v>0.05492614229002482</v>
+        <v>0.0527717175330108</v>
       </c>
       <c r="AB2">
-        <v>0.1719757006885846</v>
+        <v>0.1439197654470925</v>
       </c>
       <c r="AC2">
-        <v>0.01078839417983216</v>
+        <v>0.01840106603624266</v>
       </c>
       <c r="AD2">
-        <v>0.05842604783211498</v>
+        <v>0.05549714052827705</v>
       </c>
       <c r="AE2">
-        <v>0.05203679616644637</v>
+        <v>0.05052174527753636</v>
       </c>
       <c r="AF2">
-        <v>0.03467851626785574</v>
+        <v>0.03700462185093275</v>
       </c>
       <c r="AG2">
-        <v>0.03657282883678646</v>
+        <v>0.03847974824320173</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.002898873604778498</v>
       </c>
       <c r="AI2">
-        <v>0.06258121870525894</v>
+        <v>0.05873282735203172</v>
       </c>
       <c r="AJ2">
-        <v>0.0006110994008091101</v>
+        <v>0.01047587123118869</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>4.107669483770556E-05</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.006833471308945262</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.009253880036455246</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.001477384434753786</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.002267818515649673</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>0.007176270979370142</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.006084511207772647</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -904,100 +904,100 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07043327325188499</v>
+        <v>0.06415125148781092</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.006994845841933283</v>
       </c>
       <c r="N3">
-        <v>0.1513734770218871</v>
+        <v>0.1263805520365646</v>
       </c>
       <c r="O3">
-        <v>0.03376758165726178</v>
+        <v>0.03596154803026475</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0001638996218098997</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.003547577529676311</v>
       </c>
       <c r="R3">
-        <v>0.011189963278938</v>
+        <v>0.01860318550708452</v>
       </c>
       <c r="S3">
-        <v>0.01025654852942181</v>
+        <v>0.01788554774144042</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.906305534096791E-05</v>
       </c>
       <c r="U3">
-        <v>0.01149578800263902</v>
+        <v>0.01883831289446433</v>
       </c>
       <c r="V3">
-        <v>0.02673230169371726</v>
+        <v>0.03055260993887964</v>
       </c>
       <c r="W3">
-        <v>0.1688475900498538</v>
+        <v>0.1398151837868153</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.004176066079354237</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.006284761567473527</v>
       </c>
       <c r="Z3">
-        <v>0.01243018515183603</v>
+        <v>0.01955670595898525</v>
       </c>
       <c r="AA3">
-        <v>0.04059718067299548</v>
+        <v>0.04121235232753633</v>
       </c>
       <c r="AB3">
-        <v>0.1031970802498829</v>
+        <v>0.0893410669050463</v>
       </c>
       <c r="AC3">
-        <v>0.01972016366855219</v>
+        <v>0.02516146407646875</v>
       </c>
       <c r="AD3">
-        <v>0.02309042191550195</v>
+        <v>0.02775262154343427</v>
       </c>
       <c r="AE3">
-        <v>0.1149852229389015</v>
+        <v>0.0984041510108267</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.002451855400746046</v>
       </c>
       <c r="AG3">
-        <v>0.09942548886148123</v>
+        <v>0.08644135226233464</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.006083408935234408</v>
       </c>
       <c r="AI3">
-        <v>0.1010328951401408</v>
+        <v>0.08767717529909025</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>0.008040043835109154</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>0.009271667175648771</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.0009152301482864708</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.0003441850926876153</v>
       </c>
       <c r="AN3">
-        <v>0.001424837915103977</v>
+        <v>0.01109545890326911</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>0.004343277025224471</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>7.368895134013643E-05</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>0.008459890029818385</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1047,100 +1047,100 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.09388225790065369</v>
+        <v>0.08322260651736778</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.001838613309560617</v>
       </c>
       <c r="P4">
-        <v>0.1420679133840544</v>
+        <v>0.1208045668380934</v>
       </c>
       <c r="Q4">
-        <v>0.005555451940145354</v>
+        <v>0.01433292381900178</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.009637978798207691</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.005969326306916895</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0006152494303100408</v>
       </c>
       <c r="U4">
-        <v>0.04197517972226385</v>
+        <v>0.04273815667654198</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.008094475917846658</v>
       </c>
       <c r="W4">
-        <v>0.03535509172522318</v>
+        <v>0.03757487972350351</v>
       </c>
       <c r="X4">
-        <v>0.1320192518351022</v>
+        <v>0.1129672053698196</v>
       </c>
       <c r="Y4">
-        <v>0.09378795533414672</v>
+        <v>0.08314905609500549</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.007050288086903077</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.008242572449643465</v>
       </c>
       <c r="AB4">
-        <v>0.001161553250747734</v>
+        <v>0.01090594281103116</v>
       </c>
       <c r="AC4">
-        <v>0.1217931223029625</v>
+        <v>0.1049914293747443</v>
       </c>
       <c r="AD4">
-        <v>0.0574895584743941</v>
+        <v>0.05483845417823569</v>
       </c>
       <c r="AE4">
-        <v>0.06242304613929991</v>
+        <v>0.05868628266173843</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.001479906243493493</v>
       </c>
       <c r="AG4">
-        <v>0.1069113980313232</v>
+        <v>0.09338456493614819</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.0002261881566816803</v>
       </c>
       <c r="AI4">
-        <v>0.03275621785483168</v>
+        <v>0.03554791186977638</v>
       </c>
       <c r="AJ4">
-        <v>0.01484669020595838</v>
+        <v>0.02157953994019332</v>
       </c>
       <c r="AK4">
-        <v>0.05797531189889297</v>
+        <v>0.05521731310921903</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.001202365483990288</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.001891843161154858</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>0.002651857834793258</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>0.00330863644731773</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>0.003086365155293062</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.002286736019703891</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>0.007114867789457424</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>0.005361895488305895</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1154,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01739209388684516</v>
+        <v>0.02278462818150934</v>
       </c>
       <c r="E5">
-        <v>0.08292699929028143</v>
+        <v>0.07687555451819432</v>
       </c>
       <c r="F5">
-        <v>0.06951972152744759</v>
+        <v>0.06580951163035498</v>
       </c>
       <c r="G5">
-        <v>0.04062675066130009</v>
+        <v>0.04196195208711922</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.003622690349231902</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1178,76 +1178,76 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.003858819206489999</v>
       </c>
       <c r="M5">
-        <v>0.003983264800466442</v>
+        <v>0.01171730486872586</v>
       </c>
       <c r="N5">
-        <v>0.07071750434540185</v>
+        <v>0.06679813260683257</v>
       </c>
       <c r="O5">
-        <v>0.1028988708694959</v>
+        <v>0.09335985441527446</v>
       </c>
       <c r="P5">
-        <v>0.0648448828815036</v>
+        <v>0.06195101284597456</v>
       </c>
       <c r="Q5">
-        <v>0.09090704495707919</v>
+        <v>0.08346209126023875</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.0006276715348163604</v>
       </c>
       <c r="S5">
-        <v>0.009342930586954602</v>
+        <v>0.016141043416321</v>
       </c>
       <c r="T5">
-        <v>0.1114753326243984</v>
+        <v>0.1004386585755609</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.002789245403460563</v>
       </c>
       <c r="V5">
-        <v>0.01786514194210568</v>
+        <v>0.02317507060838537</v>
       </c>
       <c r="W5">
-        <v>0.02094496464466046</v>
+        <v>0.02571708179934386</v>
       </c>
       <c r="X5">
-        <v>0.04641440600911714</v>
+        <v>0.04673894287017875</v>
       </c>
       <c r="Y5">
-        <v>0.0149427355635791</v>
+        <v>0.02076298704507484</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.1176304774461035</v>
+        <v>0.1055189662847565</v>
       </c>
       <c r="AB5">
-        <v>0.09139750139141284</v>
+        <v>0.08386690214228061</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.007803177975896879</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.002686297418518111</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.0008529090727348992</v>
       </c>
       <c r="AG5">
-        <v>0.02616937657184687</v>
+        <v>0.03002918508180501</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.000650308800920217</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1321,100 +1321,100 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.06460918676665227</v>
+        <v>0.06041919190497318</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.003663667765473274</v>
       </c>
       <c r="P6">
-        <v>0.09054365738162641</v>
+        <v>0.08065772323973341</v>
       </c>
       <c r="Q6">
-        <v>0.005104882389918577</v>
+        <v>0.01398370661743835</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.003816003978290516</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.003965167109804283</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>2.929523397495229E-05</v>
       </c>
       <c r="U6">
-        <v>0.02669898367668975</v>
+        <v>0.03083513582247364</v>
       </c>
       <c r="V6">
-        <v>0.01862907311524694</v>
+        <v>0.02453760462582092</v>
       </c>
       <c r="W6">
-        <v>0.009248748103500496</v>
+        <v>0.01721746285393325</v>
       </c>
       <c r="X6">
-        <v>0.1788145580980664</v>
+        <v>0.1495418511102942</v>
       </c>
       <c r="Y6">
-        <v>0.05204195713327261</v>
+        <v>0.05061207941356073</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.0004228070560937399</v>
       </c>
       <c r="AA6">
-        <v>0.00158462475684634</v>
+        <v>0.01123659658496189</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.003551292559904579</v>
       </c>
       <c r="AC6">
-        <v>0.1764208049135104</v>
+        <v>0.1476738334610214</v>
       </c>
       <c r="AD6">
-        <v>0.02474112736482985</v>
+        <v>0.02930727983093255</v>
       </c>
       <c r="AE6">
-        <v>0.1169535797368293</v>
+        <v>0.1012672837381747</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.001356720683624501</v>
       </c>
       <c r="AG6">
-        <v>0.1040365833368858</v>
+        <v>0.09118722310102789</v>
       </c>
       <c r="AH6">
-        <v>0.003104080622455396</v>
+        <v>0.01242233720039434</v>
       </c>
       <c r="AI6">
-        <v>0.03414800201667413</v>
+        <v>0.03664814019511477</v>
       </c>
       <c r="AJ6">
-        <v>0.04821657647321163</v>
+        <v>0.04762685995389192</v>
       </c>
       <c r="AK6">
-        <v>0.04510357411378401</v>
+        <v>0.04519756048093172</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>0.0002364249361853607</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>0.004429879091821484</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>0.0007411129361058372</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>0.00524451292371057</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>0.008377433026025298</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.001007064265682428</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>0.007921042235455202</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>0.004865706063169089</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1455,100 +1455,100 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.0376597191496582</v>
+        <v>0.03973455793488899</v>
       </c>
       <c r="N7">
-        <v>0.02490210176935788</v>
+        <v>0.02966167046596771</v>
       </c>
       <c r="O7">
-        <v>0.04671111803347081</v>
+        <v>0.04688116844021344</v>
       </c>
       <c r="P7">
-        <v>0.1258637018519451</v>
+        <v>0.1093767776053694</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.0001880962589958172</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.0003128495624090988</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.002926327004398202</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>0.007505290022949727</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>0.008636714287559374</v>
       </c>
       <c r="V7">
-        <v>0.0346352473376515</v>
+        <v>0.03734655997985464</v>
       </c>
       <c r="W7">
-        <v>0.02984791111158535</v>
+        <v>0.03356667713468348</v>
       </c>
       <c r="X7">
-        <v>0.1329620298921292</v>
+        <v>0.1149813240841399</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.00145298281753411</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.0001065940493720081</v>
       </c>
       <c r="AA7">
-        <v>0.07318294527284219</v>
+        <v>0.06778222926765737</v>
       </c>
       <c r="AB7">
-        <v>0.01170954601840651</v>
+        <v>0.01924537363361397</v>
       </c>
       <c r="AC7">
-        <v>0.191621291867296</v>
+        <v>0.1612962532180248</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>0.001325027077394013</v>
       </c>
       <c r="AE7">
-        <v>0.08208746519639658</v>
+        <v>0.07481287021580432</v>
       </c>
       <c r="AF7">
-        <v>0.02816968053507866</v>
+        <v>0.03224161562514503</v>
       </c>
       <c r="AG7">
-        <v>0.0721972338310891</v>
+        <v>0.06700395224824002</v>
       </c>
       <c r="AH7">
-        <v>0.01074269695836893</v>
+        <v>0.01848198957130236</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>0.008504693125069979</v>
       </c>
       <c r="AJ7">
-        <v>0.0743382762860583</v>
+        <v>0.06869443089109301</v>
       </c>
       <c r="AK7">
-        <v>0.02336903488866549</v>
+        <v>0.02845122421168593</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>0.0004436721895186762</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>0.000524940545676543</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>0.00122018930013594</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>0.007260235563677243</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>0.002238674021731343</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.002092427161310313</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>0.00570261248458303</v>
       </c>
       <c r="AS7">
         <v>0</v>
@@ -1592,100 +1592,100 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.02655118732027428</v>
+        <v>0.03049438275776436</v>
       </c>
       <c r="N8">
-        <v>0.04882711961408287</v>
+        <v>0.04768877324616083</v>
       </c>
       <c r="O8">
-        <v>0.06996364863856595</v>
+        <v>0.06400367889512888</v>
       </c>
       <c r="P8">
-        <v>0.1420875580400605</v>
+        <v>0.11967482412229</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.0002839629786334253</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.00021010584573979</v>
       </c>
       <c r="S8">
-        <v>0.0002569723599591735</v>
+        <v>0.01019835233127778</v>
       </c>
       <c r="T8">
-        <v>0.005184293316591004</v>
+        <v>0.01400166253497842</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.0002944810192840408</v>
       </c>
       <c r="V8">
-        <v>0.02462549635179514</v>
+        <v>0.02900797662062542</v>
       </c>
       <c r="W8">
-        <v>0.02853442144259253</v>
+        <v>0.03202520541781214</v>
       </c>
       <c r="X8">
-        <v>0.1419110012314407</v>
+        <v>0.1195385431051477</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.0006984787277757335</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.0003305903183304471</v>
       </c>
       <c r="AA8">
-        <v>0.04295752458218077</v>
+        <v>0.04315813867355855</v>
       </c>
       <c r="AB8">
-        <v>0.01845527862031475</v>
+        <v>0.02424529680663669</v>
       </c>
       <c r="AC8">
-        <v>0.165905822620676</v>
+        <v>0.138059713093643</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.008586071893696135</v>
       </c>
       <c r="AE8">
-        <v>0.05850295650292159</v>
+        <v>0.05515737727917656</v>
       </c>
       <c r="AF8">
-        <v>0.05168736491125802</v>
+        <v>0.04989654501901266</v>
       </c>
       <c r="AG8">
-        <v>0.04214704395617296</v>
+        <v>0.0425325432918231</v>
       </c>
       <c r="AH8">
-        <v>0.03421326380009322</v>
+        <v>0.03640860144043572</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.002565175018767304</v>
       </c>
       <c r="AJ8">
-        <v>0.08323690422623126</v>
+        <v>0.07424906555802697</v>
       </c>
       <c r="AK8">
-        <v>0.01070360745973292</v>
+        <v>0.01826192160533341</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>0.0020817283383901</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>0.007462842622849167</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>0.003435643597994737</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>0.001538217524964868</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.002139912099109044</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.008490820649012347</v>
       </c>
       <c r="AR8">
-        <v>0.004248535005056301</v>
+        <v>0.01327936756662093</v>
       </c>
       <c r="AS8">
         <v>0</v>
@@ -1732,100 +1732,100 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.1233280787320445</v>
+        <v>0.1069906377652094</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.002560512273325132</v>
       </c>
       <c r="P9">
-        <v>0.1817617282282293</v>
+        <v>0.152945435649457</v>
       </c>
       <c r="Q9">
-        <v>0.0619699592537035</v>
+        <v>0.05873590776809067</v>
       </c>
       <c r="R9">
-        <v>0.001192334171569131</v>
+        <v>0.0109377041539827</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.001977917627305181</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.005143101728229954</v>
       </c>
       <c r="U9">
-        <v>0.01587061956589727</v>
+        <v>0.02248135484839454</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.0007074814131495333</v>
       </c>
       <c r="W9">
-        <v>0.006606324914252338</v>
+        <v>0.01519550513804477</v>
       </c>
       <c r="X9">
-        <v>0.1125757846903116</v>
+        <v>0.09853455973927515</v>
       </c>
       <c r="Y9">
-        <v>0.09473643874209446</v>
+        <v>0.0845049116768002</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.007517171303498449</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>0.005221925992819443</v>
       </c>
       <c r="AB9">
-        <v>0.01973558893324459</v>
+        <v>0.02552093713765154</v>
       </c>
       <c r="AC9">
-        <v>0.08130215802453304</v>
+        <v>0.07393960109944037</v>
       </c>
       <c r="AD9">
-        <v>0.05435302737204044</v>
+        <v>0.05274561676046224</v>
       </c>
       <c r="AE9">
-        <v>0.05550986529565387</v>
+        <v>0.05365540510027762</v>
       </c>
       <c r="AF9">
-        <v>0.0001731662947536332</v>
+        <v>0.01013618560785403</v>
       </c>
       <c r="AG9">
-        <v>0.08882708165366018</v>
+        <v>0.07985753276129069</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.002087343798004837</v>
       </c>
       <c r="AI9">
-        <v>0.04129443925002816</v>
+        <v>0.04247576740183385</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>0.009784668111604547</v>
       </c>
       <c r="AK9">
-        <v>0.06076340487798416</v>
+        <v>0.05778702021869746</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>0.002689599346068688</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>0.0009324690780505681</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>0.002791111094181546</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>0.001456290708419232</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>0.0005201045366708381</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>0.0001152413276315005</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>0.005773424713688317</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>0.004277554120590015</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1869,100 +1869,100 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.1405329285986523</v>
+        <v>0.1192174958950175</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.0006024429813029628</v>
       </c>
       <c r="P10">
-        <v>0.1987133490264933</v>
+        <v>0.1644333744269124</v>
       </c>
       <c r="Q10">
-        <v>0.03882777636099036</v>
+        <v>0.04017565027360991</v>
       </c>
       <c r="R10">
-        <v>0.002973854763427979</v>
+        <v>0.01231118054434531</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.007403841146889197</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.00726381857001417</v>
       </c>
       <c r="U10">
-        <v>0.01569778285735489</v>
+        <v>0.02219979226135956</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.001512325320650259</v>
       </c>
       <c r="W10">
-        <v>0.01481179887245417</v>
+        <v>0.02151123511536642</v>
       </c>
       <c r="X10">
-        <v>0.1159092054826153</v>
+        <v>0.1000807611442154</v>
       </c>
       <c r="Y10">
-        <v>0.08225903414920377</v>
+        <v>0.07392897247716594</v>
       </c>
       <c r="Z10">
-        <v>0.00423593555808258</v>
+        <v>0.01329202756279057</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.004223434668582807</v>
       </c>
       <c r="AB10">
-        <v>0.01466709753257304</v>
+        <v>0.02139877806951915</v>
       </c>
       <c r="AC10">
-        <v>0.0894269847538379</v>
+        <v>0.07949966415451012</v>
       </c>
       <c r="AD10">
-        <v>0.04427369877751277</v>
+        <v>0.04440803918845121</v>
       </c>
       <c r="AE10">
-        <v>0.0561090678133709</v>
+        <v>0.05360609249865774</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.005591093076687902</v>
       </c>
       <c r="AG10">
-        <v>0.08171367638102749</v>
+        <v>0.07350513864404905</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>2.473351628646027E-05</v>
       </c>
       <c r="AI10">
-        <v>0.04282536948228078</v>
+        <v>0.0432824460592538</v>
       </c>
       <c r="AJ10">
-        <v>0.003834060602139246</v>
+        <v>0.01297970377655253</v>
       </c>
       <c r="AK10">
-        <v>0.05318837898798318</v>
+        <v>0.05133623074470248</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.0006000071295110475</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>0.002712410020526577</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>0.005075613987776338</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>0.002785144684042493</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>0.001256361358853029</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.000465879558766915</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.007594796546172564</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>0.0057215145974582</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2006,100 +2006,100 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.07334131855663767</v>
+        <v>0.0677402955992344</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.807786733528244E-05</v>
       </c>
       <c r="P11">
-        <v>0.1978382678232338</v>
+        <v>0.1657544954162836</v>
       </c>
       <c r="Q11">
-        <v>0.002197033028412835</v>
+        <v>0.01172968442616522</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.007564921027536589</v>
       </c>
       <c r="S11">
-        <v>0.006442666752723774</v>
+        <v>0.01507219518370607</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.006398337591709338</v>
       </c>
       <c r="U11">
-        <v>0.03588429631996103</v>
+        <v>0.03825105844374743</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.001458587832522412</v>
       </c>
       <c r="W11">
-        <v>0.004032617448228163</v>
+        <v>0.0131748068903276</v>
       </c>
       <c r="X11">
-        <v>0.1509539294988324</v>
+        <v>0.1288433025566286</v>
       </c>
       <c r="Y11">
-        <v>0.08399826873650443</v>
+        <v>0.07613032001768863</v>
       </c>
       <c r="Z11">
-        <v>0.005030005757234858</v>
+        <v>0.01396003269377145</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>0.002979748819340079</v>
       </c>
       <c r="AB11">
-        <v>0.01989457935408998</v>
+        <v>0.02566264304125492</v>
       </c>
       <c r="AC11">
-        <v>0.07633201761863613</v>
+        <v>0.07009481896050707</v>
       </c>
       <c r="AD11">
-        <v>0.0434749262667579</v>
+        <v>0.04422702431861764</v>
       </c>
       <c r="AE11">
-        <v>0.06916830738977978</v>
+        <v>0.06445495926965632</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.001490922707465351</v>
       </c>
       <c r="AG11">
-        <v>0.09929712481819576</v>
+        <v>0.08817483312260137</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.001124313207731764</v>
       </c>
       <c r="AI11">
-        <v>0.04155272018563911</v>
+        <v>0.04271370618484652</v>
       </c>
       <c r="AJ11">
-        <v>0.0257826098650806</v>
+        <v>0.03029818312824372</v>
       </c>
       <c r="AK11">
-        <v>0.06477931058005186</v>
+        <v>0.06099958134401837</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>5.606270427475748E-05</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>0.005550062826417822</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>0.0006138594058699347</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>0.0003104311228837681</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>0.001745755023079897</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.0002538778629239474</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.007184723294904383</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>0.005958378108705928</v>
       </c>
     </row>
   </sheetData>
@@ -2287,106 +2287,106 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01339556254618188</v>
+        <v>0.0204313027191266</v>
       </c>
       <c r="M2">
-        <v>0.04919911245647223</v>
+        <v>0.05831200323065894</v>
       </c>
       <c r="N2">
-        <v>0.1259851836477085</v>
+        <v>0.1281063381416996</v>
       </c>
       <c r="O2">
-        <v>0.2332512041756527</v>
+        <v>0.221635814992372</v>
       </c>
       <c r="P2">
-        <v>0.2332512041756527</v>
+        <v>0.2221559359380918</v>
       </c>
       <c r="Q2">
-        <v>0.2332512041756527</v>
+        <v>0.2221896455804769</v>
       </c>
       <c r="R2">
-        <v>0.2332512041756527</v>
+        <v>0.2223474926569297</v>
       </c>
       <c r="S2">
-        <v>0.2392032231494816</v>
+        <v>0.2369824089952279</v>
       </c>
       <c r="T2">
-        <v>0.2392032231494816</v>
+        <v>0.2375826723114139</v>
       </c>
       <c r="U2">
-        <v>0.2964017272224413</v>
+        <v>0.2921239081877902</v>
       </c>
       <c r="V2">
-        <v>0.3193525464951502</v>
+        <v>0.3199960164072265</v>
       </c>
       <c r="W2">
-        <v>0.480583236274174</v>
+        <v>0.4555484989476454</v>
       </c>
       <c r="X2">
-        <v>0.480583236274174</v>
+        <v>0.4579805400152286</v>
       </c>
       <c r="Y2">
-        <v>0.480583236274174</v>
+        <v>0.459489970928067</v>
       </c>
       <c r="Z2">
-        <v>0.5174032556322867</v>
+        <v>0.4981622097179227</v>
       </c>
       <c r="AA2">
-        <v>0.5723293979223115</v>
+        <v>0.5509339272509336</v>
       </c>
       <c r="AB2">
-        <v>0.7443050986108961</v>
+        <v>0.6948536926980261</v>
       </c>
       <c r="AC2">
-        <v>0.7550934927907282</v>
+        <v>0.7132547587342688</v>
       </c>
       <c r="AD2">
-        <v>0.8135195406228433</v>
+        <v>0.7687518992625458</v>
       </c>
       <c r="AE2">
-        <v>0.8655563367892897</v>
+        <v>0.8192736445400822</v>
       </c>
       <c r="AF2">
-        <v>0.9002348530571455</v>
+        <v>0.856278266391015</v>
       </c>
       <c r="AG2">
-        <v>0.9368076818939319</v>
+        <v>0.8947580146342168</v>
       </c>
       <c r="AH2">
-        <v>0.9368076818939319</v>
+        <v>0.8976568882389953</v>
       </c>
       <c r="AI2">
-        <v>0.9993889005991908</v>
+        <v>0.9563897155910269</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9668655868222156</v>
       </c>
       <c r="AK2">
-        <v>0.9999999999999999</v>
+        <v>0.9669066635170532</v>
       </c>
       <c r="AL2">
-        <v>0.9999999999999999</v>
+        <v>0.9737401348259985</v>
       </c>
       <c r="AM2">
-        <v>0.9999999999999999</v>
+        <v>0.9829940148624537</v>
       </c>
       <c r="AN2">
-        <v>0.9999999999999999</v>
+        <v>0.9844713992972075</v>
       </c>
       <c r="AO2">
-        <v>0.9999999999999999</v>
+        <v>0.9867392178128572</v>
       </c>
       <c r="AP2">
-        <v>0.9999999999999999</v>
+        <v>0.9939154887922274</v>
       </c>
       <c r="AQ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -2424,106 +2424,106 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07043327325188499</v>
+        <v>0.06415125148781092</v>
       </c>
       <c r="M3">
-        <v>0.07043327325188499</v>
+        <v>0.07114609732974421</v>
       </c>
       <c r="N3">
-        <v>0.2218067502737721</v>
+        <v>0.1975266493663088</v>
       </c>
       <c r="O3">
-        <v>0.2555743319310338</v>
+        <v>0.2334881973965736</v>
       </c>
       <c r="P3">
-        <v>0.2555743319310338</v>
+        <v>0.2336520970183835</v>
       </c>
       <c r="Q3">
-        <v>0.2555743319310338</v>
+        <v>0.2371996745480598</v>
       </c>
       <c r="R3">
-        <v>0.2667642952099719</v>
+        <v>0.2558028600551443</v>
       </c>
       <c r="S3">
-        <v>0.2770208437393937</v>
+        <v>0.2736884077965847</v>
       </c>
       <c r="T3">
-        <v>0.2770208437393937</v>
+        <v>0.2737074708519257</v>
       </c>
       <c r="U3">
-        <v>0.2885166317420327</v>
+        <v>0.2925457837463901</v>
       </c>
       <c r="V3">
-        <v>0.3152489334357499</v>
+        <v>0.3230983936852697</v>
       </c>
       <c r="W3">
-        <v>0.4840965234856037</v>
+        <v>0.4629135774720851</v>
       </c>
       <c r="X3">
-        <v>0.4840965234856037</v>
+        <v>0.4670896435514393</v>
       </c>
       <c r="Y3">
-        <v>0.4840965234856037</v>
+        <v>0.4733744051189128</v>
       </c>
       <c r="Z3">
-        <v>0.4965267086374398</v>
+        <v>0.4929311110778981</v>
       </c>
       <c r="AA3">
-        <v>0.5371238893104352</v>
+        <v>0.5341434634054344</v>
       </c>
       <c r="AB3">
-        <v>0.6403209695603181</v>
+        <v>0.6234845303104807</v>
       </c>
       <c r="AC3">
-        <v>0.6600411332288704</v>
+        <v>0.6486459943869495</v>
       </c>
       <c r="AD3">
-        <v>0.6831315551443723</v>
+        <v>0.6763986159303838</v>
       </c>
       <c r="AE3">
-        <v>0.7981167780832739</v>
+        <v>0.7748027669412104</v>
       </c>
       <c r="AF3">
-        <v>0.7981167780832739</v>
+        <v>0.7772546223419564</v>
       </c>
       <c r="AG3">
-        <v>0.897542266944755</v>
+        <v>0.863695974604291</v>
       </c>
       <c r="AH3">
-        <v>0.897542266944755</v>
+        <v>0.8697793835395254</v>
       </c>
       <c r="AI3">
-        <v>0.9985751620848958</v>
+        <v>0.9574565588386157</v>
       </c>
       <c r="AJ3">
-        <v>0.9985751620848958</v>
+        <v>0.9654966026737248</v>
       </c>
       <c r="AK3">
-        <v>0.9985751620848958</v>
+        <v>0.9747682698493736</v>
       </c>
       <c r="AL3">
-        <v>0.9985751620848958</v>
+        <v>0.97568349999766</v>
       </c>
       <c r="AM3">
-        <v>0.9985751620848958</v>
+        <v>0.9760276850903477</v>
       </c>
       <c r="AN3">
-        <v>0.9999999999999998</v>
+        <v>0.9871231439936168</v>
       </c>
       <c r="AO3">
-        <v>0.9999999999999998</v>
+        <v>0.9914664210188413</v>
       </c>
       <c r="AP3">
-        <v>0.9999999999999998</v>
+        <v>0.9915401099701815</v>
       </c>
       <c r="AQ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -2567,100 +2567,100 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.09388225790065369</v>
+        <v>0.08322260651736778</v>
       </c>
       <c r="O4">
-        <v>0.09388225790065369</v>
+        <v>0.08506121982692839</v>
       </c>
       <c r="P4">
-        <v>0.235950171284708</v>
+        <v>0.2058657866650218</v>
       </c>
       <c r="Q4">
-        <v>0.2415056232248534</v>
+        <v>0.2201987104840235</v>
       </c>
       <c r="R4">
-        <v>0.2415056232248534</v>
+        <v>0.2298366892822312</v>
       </c>
       <c r="S4">
-        <v>0.2415056232248534</v>
+        <v>0.2358060155891481</v>
       </c>
       <c r="T4">
-        <v>0.2415056232248534</v>
+        <v>0.2364212650194582</v>
       </c>
       <c r="U4">
-        <v>0.2834808029471172</v>
+        <v>0.2791594216960002</v>
       </c>
       <c r="V4">
-        <v>0.2834808029471172</v>
+        <v>0.2872538976138468</v>
       </c>
       <c r="W4">
-        <v>0.3188358946723404</v>
+        <v>0.3248287773373504</v>
       </c>
       <c r="X4">
-        <v>0.4508551465074426</v>
+        <v>0.4377959827071699</v>
       </c>
       <c r="Y4">
-        <v>0.5446431018415894</v>
+        <v>0.5209450388021754</v>
       </c>
       <c r="Z4">
-        <v>0.5446431018415894</v>
+        <v>0.5279953268890785</v>
       </c>
       <c r="AA4">
-        <v>0.5446431018415894</v>
+        <v>0.5362378993387219</v>
       </c>
       <c r="AB4">
-        <v>0.5458046550923371</v>
+        <v>0.5471438421497531</v>
       </c>
       <c r="AC4">
-        <v>0.6675977773952996</v>
+        <v>0.6521352715244974</v>
       </c>
       <c r="AD4">
-        <v>0.7250873358696936</v>
+        <v>0.7069737257027331</v>
       </c>
       <c r="AE4">
-        <v>0.7875103820089936</v>
+        <v>0.7656600083644716</v>
       </c>
       <c r="AF4">
-        <v>0.7875103820089936</v>
+        <v>0.767139914607965</v>
       </c>
       <c r="AG4">
-        <v>0.8944217800403168</v>
+        <v>0.8605244795441133</v>
       </c>
       <c r="AH4">
-        <v>0.8944217800403168</v>
+        <v>0.8607506677007949</v>
       </c>
       <c r="AI4">
-        <v>0.9271779978951484</v>
+        <v>0.8962985795705712</v>
       </c>
       <c r="AJ4">
-        <v>0.9420246881011068</v>
+        <v>0.9178781195107646</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999998</v>
+        <v>0.9730954326199837</v>
       </c>
       <c r="AL4">
-        <v>0.9999999999999998</v>
+        <v>0.974297798103974</v>
       </c>
       <c r="AM4">
-        <v>0.9999999999999998</v>
+        <v>0.9761896412651289</v>
       </c>
       <c r="AN4">
-        <v>0.9999999999999998</v>
+        <v>0.9788414990999221</v>
       </c>
       <c r="AO4">
-        <v>0.9999999999999998</v>
+        <v>0.9821501355472398</v>
       </c>
       <c r="AP4">
-        <v>0.9999999999999998</v>
+        <v>0.9852365007025329</v>
       </c>
       <c r="AQ4">
-        <v>0.9999999999999998</v>
+        <v>0.9875232367222367</v>
       </c>
       <c r="AR4">
-        <v>0.9999999999999998</v>
+        <v>0.9946381045116942</v>
       </c>
       <c r="AS4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -2674,130 +2674,130 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01739209388684516</v>
+        <v>0.02278462818150934</v>
       </c>
       <c r="E5">
-        <v>0.1003190931771266</v>
+        <v>0.09966018269970366</v>
       </c>
       <c r="F5">
-        <v>0.1698388147045742</v>
+        <v>0.1654696943300586</v>
       </c>
       <c r="G5">
-        <v>0.2104655653658743</v>
+        <v>0.2074316464171779</v>
       </c>
       <c r="H5">
-        <v>0.2104655653658743</v>
+        <v>0.2110543367664098</v>
       </c>
       <c r="I5">
-        <v>0.2104655653658743</v>
+        <v>0.2110543367664098</v>
       </c>
       <c r="J5">
-        <v>0.2104655653658743</v>
+        <v>0.2110543367664098</v>
       </c>
       <c r="K5">
-        <v>0.2104655653658743</v>
+        <v>0.2110543367664098</v>
       </c>
       <c r="L5">
-        <v>0.2104655653658743</v>
+        <v>0.2149131559728998</v>
       </c>
       <c r="M5">
-        <v>0.2144488301663407</v>
+        <v>0.2266304608416256</v>
       </c>
       <c r="N5">
-        <v>0.2851663345117426</v>
+        <v>0.2934285934484582</v>
       </c>
       <c r="O5">
-        <v>0.3880652053812385</v>
+        <v>0.3867884478637326</v>
       </c>
       <c r="P5">
-        <v>0.452910088262742</v>
+        <v>0.4487394607097072</v>
       </c>
       <c r="Q5">
-        <v>0.5438171332198212</v>
+        <v>0.5322015519699459</v>
       </c>
       <c r="R5">
-        <v>0.5438171332198212</v>
+        <v>0.5328292235047623</v>
       </c>
       <c r="S5">
-        <v>0.5531600638067757</v>
+        <v>0.5489702669210832</v>
       </c>
       <c r="T5">
-        <v>0.6646353964311741</v>
+        <v>0.6494089254966442</v>
       </c>
       <c r="U5">
-        <v>0.6646353964311741</v>
+        <v>0.6521981709001048</v>
       </c>
       <c r="V5">
-        <v>0.6825005383732797</v>
+        <v>0.6753732415084902</v>
       </c>
       <c r="W5">
-        <v>0.7034455030179402</v>
+        <v>0.7010903233078341</v>
       </c>
       <c r="X5">
-        <v>0.7498599090270573</v>
+        <v>0.7478292661780128</v>
       </c>
       <c r="Y5">
-        <v>0.7648026445906364</v>
+        <v>0.7685922532230877</v>
       </c>
       <c r="Z5">
-        <v>0.7648026445906364</v>
+        <v>0.7685922532230877</v>
       </c>
       <c r="AA5">
-        <v>0.88243312203674</v>
+        <v>0.8741112195078442</v>
       </c>
       <c r="AB5">
-        <v>0.9738306234281529</v>
+        <v>0.9579781216501249</v>
       </c>
       <c r="AC5">
-        <v>0.9738306234281529</v>
+        <v>0.9579781216501249</v>
       </c>
       <c r="AD5">
-        <v>0.9738306234281529</v>
+        <v>0.9657812996260218</v>
       </c>
       <c r="AE5">
-        <v>0.9738306234281529</v>
+        <v>0.9684675970445399</v>
       </c>
       <c r="AF5">
-        <v>0.9738306234281529</v>
+        <v>0.9693205061172748</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999998</v>
+        <v>0.9993496911990798</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999998</v>
+        <v>0.9993496911990798</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -2841,97 +2841,97 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.06460918676665227</v>
+        <v>0.06041919190497318</v>
       </c>
       <c r="O6">
-        <v>0.06460918676665227</v>
+        <v>0.06408285967044645</v>
       </c>
       <c r="P6">
-        <v>0.1551528441482787</v>
+        <v>0.1447405829101799</v>
       </c>
       <c r="Q6">
-        <v>0.1602577265381973</v>
+        <v>0.1587242895276182</v>
       </c>
       <c r="R6">
-        <v>0.1602577265381973</v>
+        <v>0.1625402935059088</v>
       </c>
       <c r="S6">
-        <v>0.1602577265381973</v>
+        <v>0.1665054606157131</v>
       </c>
       <c r="T6">
-        <v>0.1602577265381973</v>
+        <v>0.166534755849688</v>
       </c>
       <c r="U6">
-        <v>0.186956710214887</v>
+        <v>0.1973698916721617</v>
       </c>
       <c r="V6">
-        <v>0.2055857833301339</v>
+        <v>0.2219074962979826</v>
       </c>
       <c r="W6">
-        <v>0.2148345314336344</v>
+        <v>0.2391249591519158</v>
       </c>
       <c r="X6">
-        <v>0.3936490895317009</v>
+        <v>0.3886668102622101</v>
       </c>
       <c r="Y6">
-        <v>0.4456910466649734</v>
+        <v>0.4392788896757708</v>
       </c>
       <c r="Z6">
-        <v>0.4456910466649734</v>
+        <v>0.4397016967318645</v>
       </c>
       <c r="AA6">
-        <v>0.4472756714218198</v>
+        <v>0.4509382933168264</v>
       </c>
       <c r="AB6">
-        <v>0.4472756714218198</v>
+        <v>0.4544895858767311</v>
       </c>
       <c r="AC6">
-        <v>0.6236964763353302</v>
+        <v>0.6021634193377525</v>
       </c>
       <c r="AD6">
-        <v>0.64843760370016</v>
+        <v>0.631470699168685</v>
       </c>
       <c r="AE6">
-        <v>0.7653911834369893</v>
+        <v>0.7327379829068598</v>
       </c>
       <c r="AF6">
-        <v>0.7653911834369893</v>
+        <v>0.7340947035904842</v>
       </c>
       <c r="AG6">
-        <v>0.869427766773875</v>
+        <v>0.8252819266915121</v>
       </c>
       <c r="AH6">
-        <v>0.8725318473963304</v>
+        <v>0.8377042638919064</v>
       </c>
       <c r="AI6">
-        <v>0.9066798494130045</v>
+        <v>0.8743524040870212</v>
       </c>
       <c r="AJ6">
-        <v>0.9548964258862161</v>
+        <v>0.9219792640409131</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0.9671768245218448</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0.9674132494580302</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0.9718431285498517</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0.9725842414859575</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0.977828754409668</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.9862061874356933</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.9872132517013757</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0.9951342939368309</v>
       </c>
       <c r="AS6">
         <v>1</v>
@@ -2975,103 +2975,103 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.0376597191496582</v>
+        <v>0.03973455793488899</v>
       </c>
       <c r="N7">
-        <v>0.06256182091901609</v>
+        <v>0.0693962284008567</v>
       </c>
       <c r="O7">
-        <v>0.1092729389524869</v>
+        <v>0.1162773968410701</v>
       </c>
       <c r="P7">
-        <v>0.235136640804432</v>
+        <v>0.2256541744464395</v>
       </c>
       <c r="Q7">
-        <v>0.235136640804432</v>
+        <v>0.2258422707054354</v>
       </c>
       <c r="R7">
-        <v>0.235136640804432</v>
+        <v>0.2261551202678445</v>
       </c>
       <c r="S7">
-        <v>0.235136640804432</v>
+        <v>0.2290814472722427</v>
       </c>
       <c r="T7">
-        <v>0.235136640804432</v>
+        <v>0.2365867372951924</v>
       </c>
       <c r="U7">
-        <v>0.235136640804432</v>
+        <v>0.2452234515827518</v>
       </c>
       <c r="V7">
-        <v>0.2697718881420835</v>
+        <v>0.2825700115626064</v>
       </c>
       <c r="W7">
-        <v>0.2996197992536688</v>
+        <v>0.3161366886972899</v>
       </c>
       <c r="X7">
-        <v>0.4325818291457981</v>
+        <v>0.4311180127814298</v>
       </c>
       <c r="Y7">
-        <v>0.4325818291457981</v>
+        <v>0.4325709955989639</v>
       </c>
       <c r="Z7">
-        <v>0.4325818291457981</v>
+        <v>0.4326775896483359</v>
       </c>
       <c r="AA7">
-        <v>0.5057647744186402</v>
+        <v>0.5004598189159932</v>
       </c>
       <c r="AB7">
-        <v>0.5174743204370467</v>
+        <v>0.5197051925496072</v>
       </c>
       <c r="AC7">
-        <v>0.7090956123043426</v>
+        <v>0.681001445767632</v>
       </c>
       <c r="AD7">
-        <v>0.7090956123043426</v>
+        <v>0.682326472845026</v>
       </c>
       <c r="AE7">
-        <v>0.7911830775007391</v>
+        <v>0.7571393430608303</v>
       </c>
       <c r="AF7">
-        <v>0.8193527580358178</v>
+        <v>0.7893809586859754</v>
       </c>
       <c r="AG7">
-        <v>0.8915499918669069</v>
+        <v>0.8563849109342154</v>
       </c>
       <c r="AH7">
-        <v>0.9022926888252758</v>
+        <v>0.8748669005055177</v>
       </c>
       <c r="AI7">
-        <v>0.9022926888252758</v>
+        <v>0.8833715936305877</v>
       </c>
       <c r="AJ7">
-        <v>0.9766309651113341</v>
+        <v>0.9520660245216808</v>
       </c>
       <c r="AK7">
-        <v>0.9999999999999996</v>
+        <v>0.9805172487333667</v>
       </c>
       <c r="AL7">
-        <v>0.9999999999999996</v>
+        <v>0.9809609209228853</v>
       </c>
       <c r="AM7">
-        <v>0.9999999999999996</v>
+        <v>0.9814858614685619</v>
       </c>
       <c r="AN7">
-        <v>0.9999999999999996</v>
+        <v>0.9827060507686978</v>
       </c>
       <c r="AO7">
-        <v>0.9999999999999996</v>
+        <v>0.989966286332375</v>
       </c>
       <c r="AP7">
-        <v>0.9999999999999996</v>
+        <v>0.9922049603541064</v>
       </c>
       <c r="AQ7">
-        <v>0.9999999999999996</v>
+        <v>0.9942973875154167</v>
       </c>
       <c r="AR7">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS7">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -3112,97 +3112,97 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.02655118732027428</v>
+        <v>0.03049438275776436</v>
       </c>
       <c r="N8">
-        <v>0.07537830693435715</v>
+        <v>0.07818315600392518</v>
       </c>
       <c r="O8">
-        <v>0.1453419555729231</v>
+        <v>0.1421868348990541</v>
       </c>
       <c r="P8">
-        <v>0.2874295136129836</v>
+        <v>0.2618616590213441</v>
       </c>
       <c r="Q8">
-        <v>0.2874295136129836</v>
+        <v>0.2621456219999775</v>
       </c>
       <c r="R8">
-        <v>0.2874295136129836</v>
+        <v>0.2623557278457173</v>
       </c>
       <c r="S8">
-        <v>0.2876864859729428</v>
+        <v>0.272554080176995</v>
       </c>
       <c r="T8">
-        <v>0.2928707792895338</v>
+        <v>0.2865557427119734</v>
       </c>
       <c r="U8">
-        <v>0.2928707792895338</v>
+        <v>0.2868502237312575</v>
       </c>
       <c r="V8">
-        <v>0.3174962756413289</v>
+        <v>0.3158582003518829</v>
       </c>
       <c r="W8">
-        <v>0.3460306970839214</v>
+        <v>0.347883405769695</v>
       </c>
       <c r="X8">
-        <v>0.4879416983153621</v>
+        <v>0.4674219488748427</v>
       </c>
       <c r="Y8">
-        <v>0.4879416983153621</v>
+        <v>0.4681204276026184</v>
       </c>
       <c r="Z8">
-        <v>0.4879416983153621</v>
+        <v>0.4684510179209488</v>
       </c>
       <c r="AA8">
-        <v>0.5308992228975429</v>
+        <v>0.5116091565945073</v>
       </c>
       <c r="AB8">
-        <v>0.5493545015178576</v>
+        <v>0.535854453401144</v>
       </c>
       <c r="AC8">
-        <v>0.7152603241385336</v>
+        <v>0.673914166494787</v>
       </c>
       <c r="AD8">
-        <v>0.7152603241385336</v>
+        <v>0.6825002383884831</v>
       </c>
       <c r="AE8">
-        <v>0.7737632806414552</v>
+        <v>0.7376576156676596</v>
       </c>
       <c r="AF8">
-        <v>0.8254506455527132</v>
+        <v>0.7875541606866723</v>
       </c>
       <c r="AG8">
-        <v>0.8675976895088862</v>
+        <v>0.8300867039784954</v>
       </c>
       <c r="AH8">
-        <v>0.9018109533089794</v>
+        <v>0.866495305418931</v>
       </c>
       <c r="AI8">
-        <v>0.9018109533089794</v>
+        <v>0.8690604804376983</v>
       </c>
       <c r="AJ8">
-        <v>0.9850478575352106</v>
+        <v>0.9433095459957254</v>
       </c>
       <c r="AK8">
-        <v>0.9957514649949436</v>
+        <v>0.9615714676010587</v>
       </c>
       <c r="AL8">
-        <v>0.9957514649949436</v>
+        <v>0.9636531959394489</v>
       </c>
       <c r="AM8">
-        <v>0.9957514649949436</v>
+        <v>0.971116038562298</v>
       </c>
       <c r="AN8">
-        <v>0.9957514649949436</v>
+        <v>0.9745516821602928</v>
       </c>
       <c r="AO8">
-        <v>0.9957514649949436</v>
+        <v>0.9760898996852576</v>
       </c>
       <c r="AP8">
-        <v>0.9957514649949436</v>
+        <v>0.9782298117843666</v>
       </c>
       <c r="AQ8">
-        <v>0.9957514649949436</v>
+        <v>0.9867206324333789</v>
       </c>
       <c r="AR8">
         <v>0.9999999999999999</v>
@@ -3252,97 +3252,97 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.1233280787320445</v>
+        <v>0.1069906377652094</v>
       </c>
       <c r="O9">
-        <v>0.1233280787320445</v>
+        <v>0.1095511500385346</v>
       </c>
       <c r="P9">
-        <v>0.3050898069602738</v>
+        <v>0.2624965856879916</v>
       </c>
       <c r="Q9">
-        <v>0.3670597662139773</v>
+        <v>0.3212324934560822</v>
       </c>
       <c r="R9">
-        <v>0.3682521003855464</v>
+        <v>0.3321701976100649</v>
       </c>
       <c r="S9">
-        <v>0.3682521003855464</v>
+        <v>0.3341481152373701</v>
       </c>
       <c r="T9">
-        <v>0.3682521003855464</v>
+        <v>0.3392912169656001</v>
       </c>
       <c r="U9">
-        <v>0.3841227199514436</v>
+        <v>0.3617725718139946</v>
       </c>
       <c r="V9">
-        <v>0.3841227199514436</v>
+        <v>0.3624800532271442</v>
       </c>
       <c r="W9">
-        <v>0.390729044865696</v>
+        <v>0.377675558365189</v>
       </c>
       <c r="X9">
-        <v>0.5033048295560076</v>
+        <v>0.4762101181044641</v>
       </c>
       <c r="Y9">
-        <v>0.5980412682981021</v>
+        <v>0.5607150297812643</v>
       </c>
       <c r="Z9">
-        <v>0.5980412682981021</v>
+        <v>0.5682322010847628</v>
       </c>
       <c r="AA9">
-        <v>0.5980412682981021</v>
+        <v>0.5734541270775823</v>
       </c>
       <c r="AB9">
-        <v>0.6177768572313467</v>
+        <v>0.5989750642152338</v>
       </c>
       <c r="AC9">
-        <v>0.6990790152558797</v>
+        <v>0.6729146653146743</v>
       </c>
       <c r="AD9">
-        <v>0.7534320426279201</v>
+        <v>0.7256602820751366</v>
       </c>
       <c r="AE9">
-        <v>0.8089419079235739</v>
+        <v>0.7793156871754142</v>
       </c>
       <c r="AF9">
-        <v>0.8091150742183275</v>
+        <v>0.7894518727832682</v>
       </c>
       <c r="AG9">
-        <v>0.8979421558719877</v>
+        <v>0.8693094055445589</v>
       </c>
       <c r="AH9">
-        <v>0.8979421558719877</v>
+        <v>0.8713967493425637</v>
       </c>
       <c r="AI9">
-        <v>0.9392365951220158</v>
+        <v>0.9138725167443976</v>
       </c>
       <c r="AJ9">
-        <v>0.9392365951220158</v>
+        <v>0.9236571848560021</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0.9814442050746995</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0.9841338044207683</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0.9850662734988188</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0.9878573845930003</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0.9893136753014196</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.9898337798380904</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.9899490211657219</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0.9957224458794103</v>
       </c>
       <c r="AS9">
         <v>1</v>
@@ -3389,100 +3389,100 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.1405329285986523</v>
+        <v>0.1192174958950175</v>
       </c>
       <c r="O10">
-        <v>0.1405329285986523</v>
+        <v>0.1198199388763205</v>
       </c>
       <c r="P10">
-        <v>0.3392462776251456</v>
+        <v>0.2842533133032329</v>
       </c>
       <c r="Q10">
-        <v>0.378074053986136</v>
+        <v>0.3244289635768428</v>
       </c>
       <c r="R10">
-        <v>0.381047908749564</v>
+        <v>0.3367401441211881</v>
       </c>
       <c r="S10">
-        <v>0.381047908749564</v>
+        <v>0.3441439852680773</v>
       </c>
       <c r="T10">
-        <v>0.381047908749564</v>
+        <v>0.3514078038380915</v>
       </c>
       <c r="U10">
-        <v>0.3967456916069189</v>
+        <v>0.373607596099451</v>
       </c>
       <c r="V10">
-        <v>0.3967456916069189</v>
+        <v>0.3751199214201013</v>
       </c>
       <c r="W10">
-        <v>0.411557490479373</v>
+        <v>0.3966311565354677</v>
       </c>
       <c r="X10">
-        <v>0.5274666959619884</v>
+        <v>0.4967119176796831</v>
       </c>
       <c r="Y10">
-        <v>0.6097257301111921</v>
+        <v>0.570640890156849</v>
       </c>
       <c r="Z10">
-        <v>0.6139616656692747</v>
+        <v>0.5839329177196396</v>
       </c>
       <c r="AA10">
-        <v>0.6139616656692747</v>
+        <v>0.5881563523882224</v>
       </c>
       <c r="AB10">
-        <v>0.6286287632018477</v>
+        <v>0.6095551304577416</v>
       </c>
       <c r="AC10">
-        <v>0.7180557479556856</v>
+        <v>0.6890547946122517</v>
       </c>
       <c r="AD10">
-        <v>0.7623294467331984</v>
+        <v>0.733462833800703</v>
       </c>
       <c r="AE10">
-        <v>0.8184385145465692</v>
+        <v>0.7870689262993608</v>
       </c>
       <c r="AF10">
-        <v>0.8184385145465692</v>
+        <v>0.7926600193760487</v>
       </c>
       <c r="AG10">
-        <v>0.9001521909275967</v>
+        <v>0.8661651580200977</v>
       </c>
       <c r="AH10">
-        <v>0.9001521909275967</v>
+        <v>0.8661898915363843</v>
       </c>
       <c r="AI10">
-        <v>0.9429775604098775</v>
+        <v>0.9094723375956381</v>
       </c>
       <c r="AJ10">
-        <v>0.9468116210120167</v>
+        <v>0.9224520413721906</v>
       </c>
       <c r="AK10">
-        <v>0.9999999999999998</v>
+        <v>0.9737882721168931</v>
       </c>
       <c r="AL10">
-        <v>0.9999999999999998</v>
+        <v>0.9743882792464041</v>
       </c>
       <c r="AM10">
-        <v>0.9999999999999998</v>
+        <v>0.9771006892669307</v>
       </c>
       <c r="AN10">
-        <v>0.9999999999999998</v>
+        <v>0.9821763032547071</v>
       </c>
       <c r="AO10">
-        <v>0.9999999999999998</v>
+        <v>0.9849614479387495</v>
       </c>
       <c r="AP10">
-        <v>0.9999999999999998</v>
+        <v>0.9862178092976025</v>
       </c>
       <c r="AQ10">
-        <v>0.9999999999999998</v>
+        <v>0.9866836888563694</v>
       </c>
       <c r="AR10">
-        <v>0.9999999999999998</v>
+        <v>0.9942784854025419</v>
       </c>
       <c r="AS10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -3526,100 +3526,100 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.07334131855663767</v>
+        <v>0.0677402955992344</v>
       </c>
       <c r="O11">
-        <v>0.07334131855663767</v>
+        <v>0.06776837346656969</v>
       </c>
       <c r="P11">
-        <v>0.2711795863798714</v>
+        <v>0.2335228688828533</v>
       </c>
       <c r="Q11">
-        <v>0.2733766194082843</v>
+        <v>0.2452525533090186</v>
       </c>
       <c r="R11">
-        <v>0.2733766194082843</v>
+        <v>0.2528174743365552</v>
       </c>
       <c r="S11">
-        <v>0.279819286161008</v>
+        <v>0.2678896695202612</v>
       </c>
       <c r="T11">
-        <v>0.279819286161008</v>
+        <v>0.2742880071119705</v>
       </c>
       <c r="U11">
-        <v>0.3157035824809691</v>
+        <v>0.312539065555718</v>
       </c>
       <c r="V11">
-        <v>0.3157035824809691</v>
+        <v>0.3139976533882404</v>
       </c>
       <c r="W11">
-        <v>0.3197361999291972</v>
+        <v>0.3271724602785679</v>
       </c>
       <c r="X11">
-        <v>0.4706901294280296</v>
+        <v>0.4560157628351965</v>
       </c>
       <c r="Y11">
-        <v>0.554688398164534</v>
+        <v>0.5321460828528851</v>
       </c>
       <c r="Z11">
-        <v>0.5597184039217689</v>
+        <v>0.5461061155466566</v>
       </c>
       <c r="AA11">
-        <v>0.5597184039217689</v>
+        <v>0.5490858643659966</v>
       </c>
       <c r="AB11">
-        <v>0.5796129832758589</v>
+        <v>0.5747485074072515</v>
       </c>
       <c r="AC11">
-        <v>0.655945000894495</v>
+        <v>0.6448433263677585</v>
       </c>
       <c r="AD11">
-        <v>0.6994199271612529</v>
+        <v>0.6890703506863762</v>
       </c>
       <c r="AE11">
-        <v>0.7685882345510326</v>
+        <v>0.7535253099560325</v>
       </c>
       <c r="AF11">
-        <v>0.7685882345510326</v>
+        <v>0.7550162326634978</v>
       </c>
       <c r="AG11">
-        <v>0.8678853593692284</v>
+        <v>0.8431910657860991</v>
       </c>
       <c r="AH11">
-        <v>0.8678853593692284</v>
+        <v>0.8443153789938309</v>
       </c>
       <c r="AI11">
-        <v>0.9094380795548676</v>
+        <v>0.8870290851786774</v>
       </c>
       <c r="AJ11">
-        <v>0.9352206894199482</v>
+        <v>0.9173272683069211</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0.9783268496509395</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0.9783829123552142</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>0.983932975181632</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0.9845468345875019</v>
       </c>
       <c r="AO11">
-        <v>1</v>
+        <v>0.9848572657103857</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.9866030207334656</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.9868568985963896</v>
       </c>
       <c r="AR11">
-        <v>1</v>
+        <v>0.994041621891294</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3684,19 +3684,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>0.01339556254618188</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5174032556322867</v>
+        <v>0.5509339272509336</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5371238893104352</v>
+        <v>0.5341434634054344</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5446431018415894</v>
+        <v>0.5209450388021754</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5438171332198212</v>
+        <v>0.5322015519699459</v>
       </c>
       <c r="G5">
         <v>14</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6236964763353302</v>
+        <v>0.6021634193377525</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5057647744186402</v>
+        <v>0.5004598189159932</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5308992228975429</v>
+        <v>0.5116091565945073</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -3974,16 +3974,16 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5033048295560076</v>
+        <v>0.5607150297812643</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -4015,16 +4015,16 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5274666959619884</v>
+        <v>0.570640890156849</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>30</v>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.554688398164534</v>
+        <v>0.5321460828528851</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -4148,19 +4148,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>0.01339556254618188</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7443050986108961</v>
+        <v>0.7132547587342688</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7981167780832739</v>
+        <v>0.7748027669412104</v>
       </c>
       <c r="G3">
         <v>21</v>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7250873358696936</v>
+        <v>0.7069737257027331</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7034455030179402</v>
+        <v>0.7010903233078341</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7653911834369893</v>
+        <v>0.7327379829068598</v>
       </c>
       <c r="G6">
         <v>19</v>
@@ -4356,16 +4356,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7090956123043426</v>
+        <v>0.7571393430608303</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -4397,16 +4397,16 @@
         <v>11</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7152603241385336</v>
+        <v>0.7376576156676596</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7534320426279201</v>
+        <v>0.7256602820751366</v>
       </c>
       <c r="G9">
         <v>18</v>
@@ -4479,16 +4479,16 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7180557479556856</v>
+        <v>0.733462833800703</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10">
         <v>30</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7685882345510326</v>
+        <v>0.7535253099560325</v>
       </c>
       <c r="G11">
         <v>19</v>
@@ -4612,19 +4612,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>0.01339556254618188</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8135195406228433</v>
+        <v>0.8192736445400822</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.897542266944755</v>
+        <v>0.863695974604291</v>
       </c>
       <c r="G3">
         <v>23</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8944217800403168</v>
+        <v>0.8605244795441133</v>
       </c>
       <c r="G4">
         <v>21</v>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.88243312203674</v>
+        <v>0.8741112195078442</v>
       </c>
       <c r="G5">
         <v>24</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.869427766773875</v>
+        <v>0.8252819266915121</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -4820,16 +4820,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8193527580358178</v>
+        <v>0.8563849109342154</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -4861,16 +4861,16 @@
         <v>11</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8254506455527132</v>
+        <v>0.8300867039784954</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -4902,16 +4902,16 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8089419079235739</v>
+        <v>0.8693094055445589</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9">
         <v>30</v>
@@ -4943,16 +4943,16 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8184385145465692</v>
+        <v>0.8661651580200977</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>30</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8678853593692284</v>
+        <v>0.8431910657860991</v>
       </c>
       <c r="G11">
         <v>21</v>
@@ -5076,19 +5076,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2">
-        <v>0.01339556254618188</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9002348530571455</v>
+        <v>0.9563897155910269</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>30</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9985751620848958</v>
+        <v>0.9574565588386157</v>
       </c>
       <c r="G3">
         <v>25</v>
@@ -5161,16 +5161,16 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9271779978951484</v>
+        <v>0.9178781195107646</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>30</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9738306234281529</v>
+        <v>0.9579781216501249</v>
       </c>
       <c r="G5">
         <v>25</v>
@@ -5243,16 +5243,16 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9066798494130045</v>
+        <v>0.9219792640409131</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>30</v>
@@ -5284,16 +5284,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9022926888252758</v>
+        <v>0.9520660245216808</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -5325,16 +5325,16 @@
         <v>11</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9018109533089794</v>
+        <v>0.9433095459957254</v>
       </c>
       <c r="G8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -5372,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9392365951220158</v>
+        <v>0.9138725167443976</v>
       </c>
       <c r="G9">
         <v>23</v>
@@ -5407,16 +5407,16 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9001521909275967</v>
+        <v>0.9094723375956381</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H10">
         <v>30</v>
@@ -5448,16 +5448,16 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9094380795548676</v>
+        <v>0.9173272683069211</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11">
         <v>30</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/30_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/30_11R22.xlsx
@@ -186,40 +186,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -229,9 +232,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -767,100 +767,100 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0204313027191266</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.03788070051153234</v>
+        <v>0.01652491711308257</v>
       </c>
       <c r="N2">
-        <v>0.06979433491104065</v>
+        <v>0.08344411578804298</v>
       </c>
       <c r="O2">
-        <v>0.09352947685067239</v>
+        <v>0.1332139620911351</v>
       </c>
       <c r="P2">
-        <v>0.0005201209457198507</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.370964238510245E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0001578470764527272</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.01463491633829824</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0006002633161860296</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0545412358763763</v>
+        <v>0.05146013201697877</v>
       </c>
       <c r="V2">
-        <v>0.02787210821943632</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.1355524825404189</v>
+        <v>0.2213313426272254</v>
       </c>
       <c r="X2">
-        <v>0.00243204106758322</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.001509430912838394</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.03867223878985575</v>
+        <v>0.01818468129546526</v>
       </c>
       <c r="AA2">
-        <v>0.0527717175330108</v>
+        <v>0.04774965679825888</v>
       </c>
       <c r="AB2">
-        <v>0.1439197654470925</v>
+        <v>0.2388765667214739</v>
       </c>
       <c r="AC2">
-        <v>0.01840106603624266</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.05549714052827705</v>
+        <v>0.0534645534662591</v>
       </c>
       <c r="AE2">
-        <v>0.05052174527753636</v>
+        <v>0.04303172531817766</v>
       </c>
       <c r="AF2">
-        <v>0.03700462185093275</v>
+        <v>0.01468788153105996</v>
       </c>
       <c r="AG2">
-        <v>0.03847974824320173</v>
+        <v>0.0177810508918159</v>
       </c>
       <c r="AH2">
-        <v>0.002898873604778498</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.05873282735203172</v>
+        <v>0.06024941434102447</v>
       </c>
       <c r="AJ2">
-        <v>0.01047587123118869</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>4.107669483770556E-05</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.006833471308945262</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.009253880036455246</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.001477384434753786</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.002267818515649673</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.007176270979370142</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.006084511207772647</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -904,100 +904,100 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06415125148781092</v>
+        <v>0.06831107696049944</v>
       </c>
       <c r="M3">
-        <v>0.006994845841933283</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.1263805520365646</v>
+        <v>0.192785301294597</v>
       </c>
       <c r="O3">
-        <v>0.03596154803026475</v>
+        <v>0.01192459276183421</v>
       </c>
       <c r="P3">
-        <v>0.0001638996218098997</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.003547577529676311</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.01860318550708452</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.01788554774144042</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1.906305534096791E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.01883831289446433</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.03055260993887964</v>
+        <v>0.0011053586155523</v>
       </c>
       <c r="W3">
-        <v>0.1398151837868153</v>
+        <v>0.2196579376826046</v>
       </c>
       <c r="X3">
-        <v>0.004176066079354237</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.006284761567473527</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.01955670595898525</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.04121235232753633</v>
+        <v>0.02242751961894987</v>
       </c>
       <c r="AB3">
-        <v>0.0893410669050463</v>
+        <v>0.1186970319291394</v>
       </c>
       <c r="AC3">
-        <v>0.02516146407646875</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.02775262154343427</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0984041510108267</v>
+        <v>0.13682547551108</v>
       </c>
       <c r="AF3">
-        <v>0.002451855400746046</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.08644135226233464</v>
+        <v>0.1128968746437626</v>
       </c>
       <c r="AH3">
-        <v>0.006083408935234408</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.08767717529909025</v>
+        <v>0.1153688309819806</v>
       </c>
       <c r="AJ3">
-        <v>0.008040043835109154</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.009271667175648771</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0009152301482864708</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0003441850926876153</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.01109545890326911</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.004343277025224471</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>7.368895134013643E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.008459890029818385</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1047,100 +1047,100 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.08322260651736778</v>
+        <v>0.1017402499582359</v>
       </c>
       <c r="O4">
-        <v>0.001838613309560617</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.1208045668380934</v>
+        <v>0.1735818655263008</v>
       </c>
       <c r="Q4">
-        <v>0.01433292381900178</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.009637978798207691</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.005969326306916895</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0006152494303100408</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.04273815667654198</v>
+        <v>0.02435024004049186</v>
       </c>
       <c r="V4">
-        <v>0.008094475917846658</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.03757487972350351</v>
+        <v>0.01448012803020709</v>
       </c>
       <c r="X4">
-        <v>0.1129672053698196</v>
+        <v>0.1585999778103164</v>
       </c>
       <c r="Y4">
-        <v>0.08314905609500549</v>
+        <v>0.1015996510878436</v>
       </c>
       <c r="Z4">
-        <v>0.007050288086903077</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.008242572449643465</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.01090594281103116</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.1049914293747443</v>
+        <v>0.1433534971050721</v>
       </c>
       <c r="AD4">
-        <v>0.05483845417823569</v>
+        <v>0.04748114949697634</v>
       </c>
       <c r="AE4">
-        <v>0.05868628266173843</v>
+        <v>0.05483665230535983</v>
       </c>
       <c r="AF4">
-        <v>0.001479906243493493</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.09338456493614819</v>
+        <v>0.1211658335071088</v>
       </c>
       <c r="AH4">
-        <v>0.0002261881566816803</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.03554791186977638</v>
+        <v>0.01060537950528823</v>
       </c>
       <c r="AJ4">
-        <v>0.02157953994019332</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.05521731310921903</v>
+        <v>0.04820537562679915</v>
       </c>
       <c r="AL4">
-        <v>0.001202365483990288</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.001891843161154858</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.002651857834793258</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.00330863644731773</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.003086365155293062</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.002286736019703891</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.007114867789457424</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.005361895488305895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1154,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02278462818150934</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07687555451819432</v>
+        <v>0.09426283393273378</v>
       </c>
       <c r="F5">
-        <v>0.06580951163035498</v>
+        <v>0.07217079939720873</v>
       </c>
       <c r="G5">
-        <v>0.04196195208711922</v>
+        <v>0.02456199159147453</v>
       </c>
       <c r="H5">
-        <v>0.003622690349231902</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1178,76 +1178,76 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.003858819206489999</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.01171730486872586</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.06679813260683257</v>
+        <v>0.07414446324220324</v>
       </c>
       <c r="O5">
-        <v>0.09335985441527446</v>
+        <v>0.1271717722326604</v>
       </c>
       <c r="P5">
-        <v>0.06195101284597456</v>
+        <v>0.06446776686211095</v>
       </c>
       <c r="Q5">
-        <v>0.08346209126023875</v>
+        <v>0.107412068817288</v>
       </c>
       <c r="R5">
-        <v>0.0006276715348163604</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.016141043416321</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.1004386585755609</v>
+        <v>0.1413037602941853</v>
       </c>
       <c r="U5">
-        <v>0.002789245403460563</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.02317507060838537</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.02571708179934386</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.04673894287017875</v>
+        <v>0.03409868383321603</v>
       </c>
       <c r="Y5">
-        <v>0.02076298704507484</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.1055189662847565</v>
+        <v>0.151445988595684</v>
       </c>
       <c r="AB5">
-        <v>0.08386690214228061</v>
+        <v>0.1082202254525974</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.007803177975896879</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.002686297418518111</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0008529090727348992</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.03002918508180501</v>
+        <v>0.0007396457486375253</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.000650308800920217</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1321,100 +1321,100 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.06041919190497318</v>
+        <v>0.05945116432204905</v>
       </c>
       <c r="O6">
-        <v>0.003663667765473274</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.08065772323973341</v>
+        <v>0.09900528054507271</v>
       </c>
       <c r="Q6">
-        <v>0.01398370661743835</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.003816003978290516</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.003965167109804283</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>2.929523397495229E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.03083513582247364</v>
+        <v>0.001632186586948515</v>
       </c>
       <c r="V6">
-        <v>0.02453760462582092</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.01721746285393325</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.1495418511102942</v>
+        <v>0.2336321837845446</v>
       </c>
       <c r="Y6">
-        <v>0.05061207941356073</v>
+        <v>0.04028417730697124</v>
       </c>
       <c r="Z6">
-        <v>0.0004228070560937399</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01123659658496189</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.003551292559904579</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.1476738334610214</v>
+        <v>0.2299813364980574</v>
       </c>
       <c r="AD6">
-        <v>0.02930727983093255</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.1012672837381747</v>
+        <v>0.1392845348929744</v>
       </c>
       <c r="AF6">
-        <v>0.001356720683624501</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.09118722310102789</v>
+        <v>0.1195840989580782</v>
       </c>
       <c r="AH6">
-        <v>0.01242233720039434</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.03664814019511477</v>
+        <v>0.01299310239438579</v>
       </c>
       <c r="AJ6">
-        <v>0.04762685995389192</v>
+        <v>0.03444987463421897</v>
       </c>
       <c r="AK6">
-        <v>0.04519756048093172</v>
+        <v>0.02970206007669903</v>
       </c>
       <c r="AL6">
-        <v>0.0002364249361853607</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.004429879091821484</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0007411129361058372</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.00524451292371057</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.008377433026025298</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.001007064265682428</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.007921042235455202</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.004865706063169089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1455,100 +1455,100 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.03973455793488899</v>
+        <v>0.01971682158635419</v>
       </c>
       <c r="N7">
-        <v>0.02966167046596771</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04688116844021344</v>
+        <v>0.03419189536198254</v>
       </c>
       <c r="P7">
-        <v>0.1093767776053694</v>
+        <v>0.1607733779605502</v>
       </c>
       <c r="Q7">
-        <v>0.0001880962589958172</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.0003128495624090988</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.002926327004398202</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.007505290022949727</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.008636714287559374</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.03734655997985464</v>
+        <v>0.01488006064220888</v>
       </c>
       <c r="W7">
-        <v>0.03356667713468348</v>
+        <v>0.00722411199266083</v>
       </c>
       <c r="X7">
-        <v>0.1149813240841399</v>
+        <v>0.1721250842972395</v>
       </c>
       <c r="Y7">
-        <v>0.00145298281753411</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.0001065940493720081</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.06778222926765737</v>
+        <v>0.07652586574426955</v>
       </c>
       <c r="AB7">
-        <v>0.01924537363361397</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.1612962532180248</v>
+        <v>0.2659334729909432</v>
       </c>
       <c r="AD7">
-        <v>0.001325027077394013</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.07481287021580432</v>
+        <v>0.09076604944234007</v>
       </c>
       <c r="AF7">
-        <v>0.03224161562514503</v>
+        <v>0.004540271437264041</v>
       </c>
       <c r="AG7">
-        <v>0.06700395224824002</v>
+        <v>0.07494950765597734</v>
       </c>
       <c r="AH7">
-        <v>0.01848198957130236</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.008504693125069979</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.06869443089109301</v>
+        <v>0.07837348088820964</v>
       </c>
       <c r="AK7">
-        <v>0.02845122421168593</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>0.0004436721895186762</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>0.000524940545676543</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>0.00122018930013594</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>0.007260235563677243</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.002238674021731343</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
-        <v>0.002092427161310313</v>
+        <v>0</v>
       </c>
       <c r="AR7">
-        <v>0.00570261248458303</v>
+        <v>0</v>
       </c>
       <c r="AS7">
         <v>0</v>
@@ -1592,100 +1592,100 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.03049438275776436</v>
+        <v>0.001068041096853151</v>
       </c>
       <c r="N8">
-        <v>0.04768877324616083</v>
+        <v>0.03821398801456873</v>
       </c>
       <c r="O8">
-        <v>0.06400367889512888</v>
+        <v>0.07345993753590142</v>
       </c>
       <c r="P8">
-        <v>0.11967482412229</v>
+        <v>0.1937292432058005</v>
       </c>
       <c r="Q8">
-        <v>0.0002839629786334253</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.00021010584573979</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0.01019835233127778</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.01400166253497842</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0.0002944810192840408</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.02900797662062542</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.03202520541781214</v>
+        <v>0.004375157874789851</v>
       </c>
       <c r="X8">
-        <v>0.1195385431051477</v>
+        <v>0.1934348281503743</v>
       </c>
       <c r="Y8">
-        <v>0.0006984787277757335</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.0003305903183304471</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.04315813867355855</v>
+        <v>0.02842621964609856</v>
       </c>
       <c r="AB8">
-        <v>0.02424529680663669</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.138059713093643</v>
+        <v>0.2334470866663663</v>
       </c>
       <c r="AD8">
-        <v>0.008586071893696135</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.05515737727917656</v>
+        <v>0.05434880646870698</v>
       </c>
       <c r="AF8">
-        <v>0.04989654501901266</v>
+        <v>0.04298355359679327</v>
       </c>
       <c r="AG8">
-        <v>0.0425325432918231</v>
+        <v>0.02707471301039693</v>
       </c>
       <c r="AH8">
-        <v>0.03640860144043572</v>
+        <v>0.01384483905282189</v>
       </c>
       <c r="AI8">
-        <v>0.002565175018767304</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.07424906555802697</v>
+        <v>0.09559358568052814</v>
       </c>
       <c r="AK8">
-        <v>0.01826192160533341</v>
+        <v>0</v>
       </c>
       <c r="AL8">
-        <v>0.0020817283383901</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>0.007462842622849167</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>0.003435643597994737</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>0.001538217524964868</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.002139912099109044</v>
+        <v>0</v>
       </c>
       <c r="AQ8">
-        <v>0.008490820649012347</v>
+        <v>0</v>
       </c>
       <c r="AR8">
-        <v>0.01327936756662093</v>
+        <v>0</v>
       </c>
       <c r="AS8">
         <v>0</v>
@@ -1732,100 +1732,100 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.1069906377652094</v>
+        <v>0.144672362475879</v>
       </c>
       <c r="O9">
-        <v>0.002560512273325132</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.152945435649457</v>
+        <v>0.2310255785291158</v>
       </c>
       <c r="Q9">
-        <v>0.05873590776809067</v>
+        <v>0.05399736624311014</v>
       </c>
       <c r="R9">
-        <v>0.0109377041539827</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.001977917627305181</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.005143101728229954</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.02248135484839454</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.0007074814131495333</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.01519550513804477</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.09853455973927515</v>
+        <v>0.1287826280769637</v>
       </c>
       <c r="Y9">
-        <v>0.0845049116768002</v>
+        <v>0.1024196521513301</v>
       </c>
       <c r="Z9">
-        <v>0.007517171303498449</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.005221925992819443</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.02552093713765154</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.07393960109944037</v>
+        <v>0.08256647927361764</v>
       </c>
       <c r="AD9">
-        <v>0.05274561676046224</v>
+        <v>0.04274106837174439</v>
       </c>
       <c r="AE9">
-        <v>0.05365540510027762</v>
+        <v>0.04445064283812938</v>
       </c>
       <c r="AF9">
-        <v>0.01013618560785403</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.07985753276129069</v>
+        <v>0.09368680739846888</v>
       </c>
       <c r="AH9">
-        <v>0.002087343798004837</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.04247576740183385</v>
+        <v>0.0234430938113161</v>
       </c>
       <c r="AJ9">
-        <v>0.009784668111604547</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>0.05778702021869746</v>
+        <v>0.05221432083032494</v>
       </c>
       <c r="AL9">
-        <v>0.002689599346068688</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>0.0009324690780505681</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>0.002791111094181546</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>0.001456290708419232</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.0005201045366708381</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
-        <v>0.0001152413276315005</v>
+        <v>0</v>
       </c>
       <c r="AR9">
-        <v>0.005773424713688317</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.004277554120590015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1869,100 +1869,100 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.1192174958950175</v>
+        <v>0.1737527494354631</v>
       </c>
       <c r="O10">
-        <v>0.0006024429813029628</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.1644333744269124</v>
+        <v>0.2618115223727948</v>
       </c>
       <c r="Q10">
-        <v>0.04017565027360991</v>
+        <v>0.01981727008359338</v>
       </c>
       <c r="R10">
-        <v>0.01231118054434531</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.007403841146889197</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.00726381857001417</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0.02219979226135956</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.001512325320650259</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.02151123511536642</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.1000807611442154</v>
+        <v>0.1364835989755394</v>
       </c>
       <c r="Y10">
-        <v>0.07392897247716594</v>
+        <v>0.08555249921790994</v>
       </c>
       <c r="Z10">
-        <v>0.01329202756279057</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.004223434668582807</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.02139877806951915</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.07949966415451012</v>
+        <v>0.09640152591929552</v>
       </c>
       <c r="AD10">
-        <v>0.04440803918845121</v>
+        <v>0.02805992701154825</v>
       </c>
       <c r="AE10">
-        <v>0.05360609249865774</v>
+        <v>0.04597330864224252</v>
       </c>
       <c r="AF10">
-        <v>0.005591093076687902</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.07350513864404905</v>
+        <v>0.08472707486510714</v>
       </c>
       <c r="AH10">
-        <v>2.473351628646027E-05</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.0432824460592538</v>
+        <v>0.025867813245277</v>
       </c>
       <c r="AJ10">
-        <v>0.01297970377655253</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>0.05133623074470248</v>
+        <v>0.04155271023122888</v>
       </c>
       <c r="AL10">
-        <v>0.0006000071295110475</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>0.002712410020526577</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>0.005075613987776338</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>0.002785144684042493</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.001256361358853029</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
-        <v>0.000465879558766915</v>
+        <v>0</v>
       </c>
       <c r="AR10">
-        <v>0.007594796546172564</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.0057215145974582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2006,100 +2006,100 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.0677402955992344</v>
+        <v>0.07290238686154581</v>
       </c>
       <c r="O11">
-        <v>2.807786733528244E-05</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.1657544954162836</v>
+        <v>0.262235008652996</v>
       </c>
       <c r="Q11">
-        <v>0.01172968442616522</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.007564921027536589</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01507219518370607</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.006398337591709338</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.03825105844374743</v>
+        <v>0.01593845106755076</v>
       </c>
       <c r="V11">
-        <v>0.001458587832522412</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.0131748068903276</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.1288433025566286</v>
+        <v>0.1909341876432557</v>
       </c>
       <c r="Y11">
-        <v>0.07613032001768863</v>
+        <v>0.08910927650616146</v>
       </c>
       <c r="Z11">
-        <v>0.01396003269377145</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.002979748819340079</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.02566264304125492</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.07009481896050707</v>
+        <v>0.07745058581527972</v>
       </c>
       <c r="AD11">
-        <v>0.04422702431861764</v>
+        <v>0.02748213850199741</v>
       </c>
       <c r="AE11">
-        <v>0.06445495926965632</v>
+        <v>0.06655614986826557</v>
       </c>
       <c r="AF11">
-        <v>0.001490922707465351</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.08817483312260137</v>
+        <v>0.11237548944889</v>
       </c>
       <c r="AH11">
-        <v>0.001124313207731764</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.04271370618484652</v>
+        <v>0.02455888360213348</v>
       </c>
       <c r="AJ11">
-        <v>0.03029818312824372</v>
+        <v>0.0005759960653633555</v>
       </c>
       <c r="AK11">
-        <v>0.06099958134401837</v>
+        <v>0.05988144596656074</v>
       </c>
       <c r="AL11">
-        <v>5.606270427475748E-05</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>0.005550062826417822</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>0.0006138594058699347</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>0.0003104311228837681</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.001745755023079897</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
-        <v>0.0002538778629239474</v>
+        <v>0</v>
       </c>
       <c r="AR11">
-        <v>0.007184723294904383</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.005958378108705928</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2287,97 +2287,97 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0204313027191266</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.05831200323065894</v>
+        <v>0.01652491711308257</v>
       </c>
       <c r="N2">
-        <v>0.1281063381416996</v>
+        <v>0.09996903290112555</v>
       </c>
       <c r="O2">
-        <v>0.221635814992372</v>
+        <v>0.2331829949922606</v>
       </c>
       <c r="P2">
-        <v>0.2221559359380918</v>
+        <v>0.2331829949922606</v>
       </c>
       <c r="Q2">
-        <v>0.2221896455804769</v>
+        <v>0.2331829949922606</v>
       </c>
       <c r="R2">
-        <v>0.2223474926569297</v>
+        <v>0.2331829949922606</v>
       </c>
       <c r="S2">
-        <v>0.2369824089952279</v>
+        <v>0.2331829949922606</v>
       </c>
       <c r="T2">
-        <v>0.2375826723114139</v>
+        <v>0.2331829949922606</v>
       </c>
       <c r="U2">
-        <v>0.2921239081877902</v>
+        <v>0.2846431270092394</v>
       </c>
       <c r="V2">
-        <v>0.3199960164072265</v>
+        <v>0.2846431270092394</v>
       </c>
       <c r="W2">
-        <v>0.4555484989476454</v>
+        <v>0.5059744696364649</v>
       </c>
       <c r="X2">
-        <v>0.4579805400152286</v>
+        <v>0.5059744696364649</v>
       </c>
       <c r="Y2">
-        <v>0.459489970928067</v>
+        <v>0.5059744696364649</v>
       </c>
       <c r="Z2">
-        <v>0.4981622097179227</v>
+        <v>0.5241591509319301</v>
       </c>
       <c r="AA2">
-        <v>0.5509339272509336</v>
+        <v>0.571908807730189</v>
       </c>
       <c r="AB2">
-        <v>0.6948536926980261</v>
+        <v>0.810785374451663</v>
       </c>
       <c r="AC2">
-        <v>0.7132547587342688</v>
+        <v>0.810785374451663</v>
       </c>
       <c r="AD2">
-        <v>0.7687518992625458</v>
+        <v>0.8642499279179221</v>
       </c>
       <c r="AE2">
-        <v>0.8192736445400822</v>
+        <v>0.9072816532360998</v>
       </c>
       <c r="AF2">
-        <v>0.856278266391015</v>
+        <v>0.9219695347671597</v>
       </c>
       <c r="AG2">
-        <v>0.8947580146342168</v>
+        <v>0.9397505856589756</v>
       </c>
       <c r="AH2">
-        <v>0.8976568882389953</v>
+        <v>0.9397505856589756</v>
       </c>
       <c r="AI2">
-        <v>0.9563897155910269</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9668655868222156</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.9669066635170532</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0.9737401348259985</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0.9829940148624537</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0.9844713992972075</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0.9867392178128572</v>
+        <v>1</v>
       </c>
       <c r="AP2">
-        <v>0.9939154887922274</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -2424,106 +2424,106 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06415125148781092</v>
+        <v>0.06831107696049944</v>
       </c>
       <c r="M3">
-        <v>0.07114609732974421</v>
+        <v>0.06831107696049944</v>
       </c>
       <c r="N3">
-        <v>0.1975266493663088</v>
+        <v>0.2610963782550965</v>
       </c>
       <c r="O3">
-        <v>0.2334881973965736</v>
+        <v>0.2730209710169307</v>
       </c>
       <c r="P3">
-        <v>0.2336520970183835</v>
+        <v>0.2730209710169307</v>
       </c>
       <c r="Q3">
-        <v>0.2371996745480598</v>
+        <v>0.2730209710169307</v>
       </c>
       <c r="R3">
-        <v>0.2558028600551443</v>
+        <v>0.2730209710169307</v>
       </c>
       <c r="S3">
-        <v>0.2736884077965847</v>
+        <v>0.2730209710169307</v>
       </c>
       <c r="T3">
-        <v>0.2737074708519257</v>
+        <v>0.2730209710169307</v>
       </c>
       <c r="U3">
-        <v>0.2925457837463901</v>
+        <v>0.2730209710169307</v>
       </c>
       <c r="V3">
-        <v>0.3230983936852697</v>
+        <v>0.274126329632483</v>
       </c>
       <c r="W3">
-        <v>0.4629135774720851</v>
+        <v>0.4937842673150876</v>
       </c>
       <c r="X3">
-        <v>0.4670896435514393</v>
+        <v>0.4937842673150876</v>
       </c>
       <c r="Y3">
-        <v>0.4733744051189128</v>
+        <v>0.4937842673150876</v>
       </c>
       <c r="Z3">
-        <v>0.4929311110778981</v>
+        <v>0.4937842673150876</v>
       </c>
       <c r="AA3">
-        <v>0.5341434634054344</v>
+        <v>0.5162117869340375</v>
       </c>
       <c r="AB3">
-        <v>0.6234845303104807</v>
+        <v>0.6349088188631768</v>
       </c>
       <c r="AC3">
-        <v>0.6486459943869495</v>
+        <v>0.6349088188631768</v>
       </c>
       <c r="AD3">
-        <v>0.6763986159303838</v>
+        <v>0.6349088188631768</v>
       </c>
       <c r="AE3">
-        <v>0.7748027669412104</v>
+        <v>0.7717342943742569</v>
       </c>
       <c r="AF3">
-        <v>0.7772546223419564</v>
+        <v>0.7717342943742569</v>
       </c>
       <c r="AG3">
-        <v>0.863695974604291</v>
+        <v>0.8846311690180195</v>
       </c>
       <c r="AH3">
-        <v>0.8697793835395254</v>
+        <v>0.8846311690180195</v>
       </c>
       <c r="AI3">
-        <v>0.9574565588386157</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9654966026737248</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0.9747682698493736</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>0.97568349999766</v>
+        <v>1</v>
       </c>
       <c r="AM3">
-        <v>0.9760276850903477</v>
+        <v>1</v>
       </c>
       <c r="AN3">
-        <v>0.9871231439936168</v>
+        <v>1</v>
       </c>
       <c r="AO3">
-        <v>0.9914664210188413</v>
+        <v>1</v>
       </c>
       <c r="AP3">
-        <v>0.9915401099701815</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -2567,97 +2567,97 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.08322260651736778</v>
+        <v>0.1017402499582359</v>
       </c>
       <c r="O4">
-        <v>0.08506121982692839</v>
+        <v>0.1017402499582359</v>
       </c>
       <c r="P4">
-        <v>0.2058657866650218</v>
+        <v>0.2753221154845367</v>
       </c>
       <c r="Q4">
-        <v>0.2201987104840235</v>
+        <v>0.2753221154845367</v>
       </c>
       <c r="R4">
-        <v>0.2298366892822312</v>
+        <v>0.2753221154845367</v>
       </c>
       <c r="S4">
-        <v>0.2358060155891481</v>
+        <v>0.2753221154845367</v>
       </c>
       <c r="T4">
-        <v>0.2364212650194582</v>
+        <v>0.2753221154845367</v>
       </c>
       <c r="U4">
-        <v>0.2791594216960002</v>
+        <v>0.2996723555250285</v>
       </c>
       <c r="V4">
-        <v>0.2872538976138468</v>
+        <v>0.2996723555250285</v>
       </c>
       <c r="W4">
-        <v>0.3248287773373504</v>
+        <v>0.3141524835552356</v>
       </c>
       <c r="X4">
-        <v>0.4377959827071699</v>
+        <v>0.472752461365552</v>
       </c>
       <c r="Y4">
-        <v>0.5209450388021754</v>
+        <v>0.5743521124533956</v>
       </c>
       <c r="Z4">
-        <v>0.5279953268890785</v>
+        <v>0.5743521124533956</v>
       </c>
       <c r="AA4">
-        <v>0.5362378993387219</v>
+        <v>0.5743521124533956</v>
       </c>
       <c r="AB4">
-        <v>0.5471438421497531</v>
+        <v>0.5743521124533956</v>
       </c>
       <c r="AC4">
-        <v>0.6521352715244974</v>
+        <v>0.7177056095584676</v>
       </c>
       <c r="AD4">
-        <v>0.7069737257027331</v>
+        <v>0.765186759055444</v>
       </c>
       <c r="AE4">
-        <v>0.7656600083644716</v>
+        <v>0.8200234113608038</v>
       </c>
       <c r="AF4">
-        <v>0.767139914607965</v>
+        <v>0.8200234113608038</v>
       </c>
       <c r="AG4">
-        <v>0.8605244795441133</v>
+        <v>0.9411892448679127</v>
       </c>
       <c r="AH4">
-        <v>0.8607506677007949</v>
+        <v>0.9411892448679127</v>
       </c>
       <c r="AI4">
-        <v>0.8962985795705712</v>
+        <v>0.9517946243732009</v>
       </c>
       <c r="AJ4">
-        <v>0.9178781195107646</v>
+        <v>0.9517946243732009</v>
       </c>
       <c r="AK4">
-        <v>0.9730954326199837</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>0.974297798103974</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>0.9761896412651289</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>0.9788414990999221</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>0.9821501355472398</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>0.9852365007025329</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0.9875232367222367</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>0.9946381045116942</v>
+        <v>1</v>
       </c>
       <c r="AS4">
         <v>1</v>
@@ -2674,130 +2674,130 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02278462818150934</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09966018269970366</v>
+        <v>0.09426283393273378</v>
       </c>
       <c r="F5">
-        <v>0.1654696943300586</v>
+        <v>0.1664336333299425</v>
       </c>
       <c r="G5">
-        <v>0.2074316464171779</v>
+        <v>0.1909956249214171</v>
       </c>
       <c r="H5">
-        <v>0.2110543367664098</v>
+        <v>0.1909956249214171</v>
       </c>
       <c r="I5">
-        <v>0.2110543367664098</v>
+        <v>0.1909956249214171</v>
       </c>
       <c r="J5">
-        <v>0.2110543367664098</v>
+        <v>0.1909956249214171</v>
       </c>
       <c r="K5">
-        <v>0.2110543367664098</v>
+        <v>0.1909956249214171</v>
       </c>
       <c r="L5">
-        <v>0.2149131559728998</v>
+        <v>0.1909956249214171</v>
       </c>
       <c r="M5">
-        <v>0.2266304608416256</v>
+        <v>0.1909956249214171</v>
       </c>
       <c r="N5">
-        <v>0.2934285934484582</v>
+        <v>0.2651400881636203</v>
       </c>
       <c r="O5">
-        <v>0.3867884478637326</v>
+        <v>0.3923118603962807</v>
       </c>
       <c r="P5">
-        <v>0.4487394607097072</v>
+        <v>0.4567796272583917</v>
       </c>
       <c r="Q5">
-        <v>0.5322015519699459</v>
+        <v>0.5641916960756798</v>
       </c>
       <c r="R5">
-        <v>0.5328292235047623</v>
+        <v>0.5641916960756798</v>
       </c>
       <c r="S5">
-        <v>0.5489702669210832</v>
+        <v>0.5641916960756798</v>
       </c>
       <c r="T5">
-        <v>0.6494089254966442</v>
+        <v>0.705495456369865</v>
       </c>
       <c r="U5">
-        <v>0.6521981709001048</v>
+        <v>0.705495456369865</v>
       </c>
       <c r="V5">
-        <v>0.6753732415084902</v>
+        <v>0.705495456369865</v>
       </c>
       <c r="W5">
-        <v>0.7010903233078341</v>
+        <v>0.705495456369865</v>
       </c>
       <c r="X5">
-        <v>0.7478292661780128</v>
+        <v>0.739594140203081</v>
       </c>
       <c r="Y5">
-        <v>0.7685922532230877</v>
+        <v>0.739594140203081</v>
       </c>
       <c r="Z5">
-        <v>0.7685922532230877</v>
+        <v>0.739594140203081</v>
       </c>
       <c r="AA5">
-        <v>0.8741112195078442</v>
+        <v>0.891040128798765</v>
       </c>
       <c r="AB5">
-        <v>0.9579781216501249</v>
+        <v>0.9992603542513624</v>
       </c>
       <c r="AC5">
-        <v>0.9579781216501249</v>
+        <v>0.9992603542513624</v>
       </c>
       <c r="AD5">
-        <v>0.9657812996260218</v>
+        <v>0.9992603542513624</v>
       </c>
       <c r="AE5">
-        <v>0.9684675970445399</v>
+        <v>0.9992603542513624</v>
       </c>
       <c r="AF5">
-        <v>0.9693205061172748</v>
+        <v>0.9992603542513624</v>
       </c>
       <c r="AG5">
-        <v>0.9993496911990798</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.9993496911990798</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -2841,97 +2841,97 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.06041919190497318</v>
+        <v>0.05945116432204905</v>
       </c>
       <c r="O6">
-        <v>0.06408285967044645</v>
+        <v>0.05945116432204905</v>
       </c>
       <c r="P6">
-        <v>0.1447405829101799</v>
+        <v>0.1584564448671218</v>
       </c>
       <c r="Q6">
-        <v>0.1587242895276182</v>
+        <v>0.1584564448671218</v>
       </c>
       <c r="R6">
-        <v>0.1625402935059088</v>
+        <v>0.1584564448671218</v>
       </c>
       <c r="S6">
-        <v>0.1665054606157131</v>
+        <v>0.1584564448671218</v>
       </c>
       <c r="T6">
-        <v>0.166534755849688</v>
+        <v>0.1584564448671218</v>
       </c>
       <c r="U6">
-        <v>0.1973698916721617</v>
+        <v>0.1600886314540703</v>
       </c>
       <c r="V6">
-        <v>0.2219074962979826</v>
+        <v>0.1600886314540703</v>
       </c>
       <c r="W6">
-        <v>0.2391249591519158</v>
+        <v>0.1600886314540703</v>
       </c>
       <c r="X6">
-        <v>0.3886668102622101</v>
+        <v>0.3937208152386149</v>
       </c>
       <c r="Y6">
-        <v>0.4392788896757708</v>
+        <v>0.4340049925455862</v>
       </c>
       <c r="Z6">
-        <v>0.4397016967318645</v>
+        <v>0.4340049925455862</v>
       </c>
       <c r="AA6">
-        <v>0.4509382933168264</v>
+        <v>0.4340049925455862</v>
       </c>
       <c r="AB6">
-        <v>0.4544895858767311</v>
+        <v>0.4340049925455862</v>
       </c>
       <c r="AC6">
-        <v>0.6021634193377525</v>
+        <v>0.6639863290436436</v>
       </c>
       <c r="AD6">
-        <v>0.631470699168685</v>
+        <v>0.6639863290436436</v>
       </c>
       <c r="AE6">
-        <v>0.7327379829068598</v>
+        <v>0.8032708639366181</v>
       </c>
       <c r="AF6">
-        <v>0.7340947035904842</v>
+        <v>0.8032708639366181</v>
       </c>
       <c r="AG6">
-        <v>0.8252819266915121</v>
+        <v>0.9228549628946963</v>
       </c>
       <c r="AH6">
-        <v>0.8377042638919064</v>
+        <v>0.9228549628946963</v>
       </c>
       <c r="AI6">
-        <v>0.8743524040870212</v>
+        <v>0.935848065289082</v>
       </c>
       <c r="AJ6">
-        <v>0.9219792640409131</v>
+        <v>0.970297939923301</v>
       </c>
       <c r="AK6">
-        <v>0.9671768245218448</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0.9674132494580302</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.9718431285498517</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0.9725842414859575</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0.977828754409668</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.9862061874356933</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.9872132517013757</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0.9951342939368309</v>
+        <v>1</v>
       </c>
       <c r="AS6">
         <v>1</v>
@@ -2975,97 +2975,97 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.03973455793488899</v>
+        <v>0.01971682158635419</v>
       </c>
       <c r="N7">
-        <v>0.0693962284008567</v>
+        <v>0.01971682158635419</v>
       </c>
       <c r="O7">
-        <v>0.1162773968410701</v>
+        <v>0.05390871694833673</v>
       </c>
       <c r="P7">
-        <v>0.2256541744464395</v>
+        <v>0.214682094908887</v>
       </c>
       <c r="Q7">
-        <v>0.2258422707054354</v>
+        <v>0.214682094908887</v>
       </c>
       <c r="R7">
-        <v>0.2261551202678445</v>
+        <v>0.214682094908887</v>
       </c>
       <c r="S7">
-        <v>0.2290814472722427</v>
+        <v>0.214682094908887</v>
       </c>
       <c r="T7">
-        <v>0.2365867372951924</v>
+        <v>0.214682094908887</v>
       </c>
       <c r="U7">
-        <v>0.2452234515827518</v>
+        <v>0.214682094908887</v>
       </c>
       <c r="V7">
-        <v>0.2825700115626064</v>
+        <v>0.2295621555510959</v>
       </c>
       <c r="W7">
-        <v>0.3161366886972899</v>
+        <v>0.2367862675437567</v>
       </c>
       <c r="X7">
-        <v>0.4311180127814298</v>
+        <v>0.4089113518409961</v>
       </c>
       <c r="Y7">
-        <v>0.4325709955989639</v>
+        <v>0.4089113518409961</v>
       </c>
       <c r="Z7">
-        <v>0.4326775896483359</v>
+        <v>0.4089113518409961</v>
       </c>
       <c r="AA7">
-        <v>0.5004598189159932</v>
+        <v>0.4854372175852657</v>
       </c>
       <c r="AB7">
-        <v>0.5197051925496072</v>
+        <v>0.4854372175852657</v>
       </c>
       <c r="AC7">
-        <v>0.681001445767632</v>
+        <v>0.7513706905762089</v>
       </c>
       <c r="AD7">
-        <v>0.682326472845026</v>
+        <v>0.7513706905762089</v>
       </c>
       <c r="AE7">
-        <v>0.7571393430608303</v>
+        <v>0.8421367400185489</v>
       </c>
       <c r="AF7">
-        <v>0.7893809586859754</v>
+        <v>0.8466770114558129</v>
       </c>
       <c r="AG7">
-        <v>0.8563849109342154</v>
+        <v>0.9216265191117902</v>
       </c>
       <c r="AH7">
-        <v>0.8748669005055177</v>
+        <v>0.9216265191117902</v>
       </c>
       <c r="AI7">
-        <v>0.8833715936305877</v>
+        <v>0.9216265191117902</v>
       </c>
       <c r="AJ7">
-        <v>0.9520660245216808</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK7">
-        <v>0.9805172487333667</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL7">
-        <v>0.9809609209228853</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM7">
-        <v>0.9814858614685619</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN7">
-        <v>0.9827060507686978</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO7">
-        <v>0.989966286332375</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP7">
-        <v>0.9922049603541064</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ7">
-        <v>0.9942973875154167</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR7">
         <v>0.9999999999999998</v>
@@ -3112,103 +3112,103 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.03049438275776436</v>
+        <v>0.001068041096853151</v>
       </c>
       <c r="N8">
-        <v>0.07818315600392518</v>
+        <v>0.03928202911142187</v>
       </c>
       <c r="O8">
-        <v>0.1421868348990541</v>
+        <v>0.1127419666473233</v>
       </c>
       <c r="P8">
-        <v>0.2618616590213441</v>
+        <v>0.3064712098531238</v>
       </c>
       <c r="Q8">
-        <v>0.2621456219999775</v>
+        <v>0.3064712098531238</v>
       </c>
       <c r="R8">
-        <v>0.2623557278457173</v>
+        <v>0.3064712098531238</v>
       </c>
       <c r="S8">
-        <v>0.272554080176995</v>
+        <v>0.3064712098531238</v>
       </c>
       <c r="T8">
-        <v>0.2865557427119734</v>
+        <v>0.3064712098531238</v>
       </c>
       <c r="U8">
-        <v>0.2868502237312575</v>
+        <v>0.3064712098531238</v>
       </c>
       <c r="V8">
-        <v>0.3158582003518829</v>
+        <v>0.3064712098531238</v>
       </c>
       <c r="W8">
-        <v>0.347883405769695</v>
+        <v>0.3108463677279137</v>
       </c>
       <c r="X8">
-        <v>0.4674219488748427</v>
+        <v>0.504281195878288</v>
       </c>
       <c r="Y8">
-        <v>0.4681204276026184</v>
+        <v>0.504281195878288</v>
       </c>
       <c r="Z8">
-        <v>0.4684510179209488</v>
+        <v>0.504281195878288</v>
       </c>
       <c r="AA8">
-        <v>0.5116091565945073</v>
+        <v>0.5327074155243866</v>
       </c>
       <c r="AB8">
-        <v>0.535854453401144</v>
+        <v>0.5327074155243866</v>
       </c>
       <c r="AC8">
-        <v>0.673914166494787</v>
+        <v>0.7661545021907529</v>
       </c>
       <c r="AD8">
-        <v>0.6825002383884831</v>
+        <v>0.7661545021907529</v>
       </c>
       <c r="AE8">
-        <v>0.7376576156676596</v>
+        <v>0.8205033086594599</v>
       </c>
       <c r="AF8">
-        <v>0.7875541606866723</v>
+        <v>0.8634868622562532</v>
       </c>
       <c r="AG8">
-        <v>0.8300867039784954</v>
+        <v>0.89056157526665</v>
       </c>
       <c r="AH8">
-        <v>0.866495305418931</v>
+        <v>0.9044064143194719</v>
       </c>
       <c r="AI8">
-        <v>0.8690604804376983</v>
+        <v>0.9044064143194719</v>
       </c>
       <c r="AJ8">
-        <v>0.9433095459957254</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>0.9615714676010587</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>0.9636531959394489</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>0.971116038562298</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0.9745516821602928</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>0.9760898996852576</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>0.9782298117843666</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.9867206324333789</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -3252,97 +3252,97 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.1069906377652094</v>
+        <v>0.144672362475879</v>
       </c>
       <c r="O9">
-        <v>0.1095511500385346</v>
+        <v>0.144672362475879</v>
       </c>
       <c r="P9">
-        <v>0.2624965856879916</v>
+        <v>0.3756979410049949</v>
       </c>
       <c r="Q9">
-        <v>0.3212324934560822</v>
+        <v>0.429695307248105</v>
       </c>
       <c r="R9">
-        <v>0.3321701976100649</v>
+        <v>0.429695307248105</v>
       </c>
       <c r="S9">
-        <v>0.3341481152373701</v>
+        <v>0.429695307248105</v>
       </c>
       <c r="T9">
-        <v>0.3392912169656001</v>
+        <v>0.429695307248105</v>
       </c>
       <c r="U9">
-        <v>0.3617725718139946</v>
+        <v>0.429695307248105</v>
       </c>
       <c r="V9">
-        <v>0.3624800532271442</v>
+        <v>0.429695307248105</v>
       </c>
       <c r="W9">
-        <v>0.377675558365189</v>
+        <v>0.429695307248105</v>
       </c>
       <c r="X9">
-        <v>0.4762101181044641</v>
+        <v>0.5584779353250686</v>
       </c>
       <c r="Y9">
-        <v>0.5607150297812643</v>
+        <v>0.6608975874763987</v>
       </c>
       <c r="Z9">
-        <v>0.5682322010847628</v>
+        <v>0.6608975874763987</v>
       </c>
       <c r="AA9">
-        <v>0.5734541270775823</v>
+        <v>0.6608975874763987</v>
       </c>
       <c r="AB9">
-        <v>0.5989750642152338</v>
+        <v>0.6608975874763987</v>
       </c>
       <c r="AC9">
-        <v>0.6729146653146743</v>
+        <v>0.7434640667500163</v>
       </c>
       <c r="AD9">
-        <v>0.7256602820751366</v>
+        <v>0.7862051351217607</v>
       </c>
       <c r="AE9">
-        <v>0.7793156871754142</v>
+        <v>0.8306557779598901</v>
       </c>
       <c r="AF9">
-        <v>0.7894518727832682</v>
+        <v>0.8306557779598901</v>
       </c>
       <c r="AG9">
-        <v>0.8693094055445589</v>
+        <v>0.924342585358359</v>
       </c>
       <c r="AH9">
-        <v>0.8713967493425637</v>
+        <v>0.924342585358359</v>
       </c>
       <c r="AI9">
-        <v>0.9138725167443976</v>
+        <v>0.9477856791696752</v>
       </c>
       <c r="AJ9">
-        <v>0.9236571848560021</v>
+        <v>0.9477856791696752</v>
       </c>
       <c r="AK9">
-        <v>0.9814442050746995</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>0.9841338044207683</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>0.9850662734988188</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>0.9878573845930003</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>0.9893136753014196</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>0.9898337798380904</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.9899490211657219</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>0.9957224458794103</v>
+        <v>1</v>
       </c>
       <c r="AS9">
         <v>1</v>
@@ -3389,100 +3389,100 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.1192174958950175</v>
+        <v>0.1737527494354631</v>
       </c>
       <c r="O10">
-        <v>0.1198199388763205</v>
+        <v>0.1737527494354631</v>
       </c>
       <c r="P10">
-        <v>0.2842533133032329</v>
+        <v>0.4355642718082579</v>
       </c>
       <c r="Q10">
-        <v>0.3244289635768428</v>
+        <v>0.4553815418918512</v>
       </c>
       <c r="R10">
-        <v>0.3367401441211881</v>
+        <v>0.4553815418918512</v>
       </c>
       <c r="S10">
-        <v>0.3441439852680773</v>
+        <v>0.4553815418918512</v>
       </c>
       <c r="T10">
-        <v>0.3514078038380915</v>
+        <v>0.4553815418918512</v>
       </c>
       <c r="U10">
-        <v>0.373607596099451</v>
+        <v>0.4553815418918512</v>
       </c>
       <c r="V10">
-        <v>0.3751199214201013</v>
+        <v>0.4553815418918512</v>
       </c>
       <c r="W10">
-        <v>0.3966311565354677</v>
+        <v>0.4553815418918512</v>
       </c>
       <c r="X10">
-        <v>0.4967119176796831</v>
+        <v>0.5918651408673906</v>
       </c>
       <c r="Y10">
-        <v>0.570640890156849</v>
+        <v>0.6774176400853006</v>
       </c>
       <c r="Z10">
-        <v>0.5839329177196396</v>
+        <v>0.6774176400853006</v>
       </c>
       <c r="AA10">
-        <v>0.5881563523882224</v>
+        <v>0.6774176400853006</v>
       </c>
       <c r="AB10">
-        <v>0.6095551304577416</v>
+        <v>0.6774176400853006</v>
       </c>
       <c r="AC10">
-        <v>0.6890547946122517</v>
+        <v>0.7738191660045961</v>
       </c>
       <c r="AD10">
-        <v>0.733462833800703</v>
+        <v>0.8018790930161444</v>
       </c>
       <c r="AE10">
-        <v>0.7870689262993608</v>
+        <v>0.8478524016583868</v>
       </c>
       <c r="AF10">
-        <v>0.7926600193760487</v>
+        <v>0.8478524016583868</v>
       </c>
       <c r="AG10">
-        <v>0.8661651580200977</v>
+        <v>0.9325794765234939</v>
       </c>
       <c r="AH10">
-        <v>0.8661898915363843</v>
+        <v>0.9325794765234939</v>
       </c>
       <c r="AI10">
-        <v>0.9094723375956381</v>
+        <v>0.9584472897687709</v>
       </c>
       <c r="AJ10">
-        <v>0.9224520413721906</v>
+        <v>0.9584472897687709</v>
       </c>
       <c r="AK10">
-        <v>0.9737882721168931</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL10">
-        <v>0.9743882792464041</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM10">
-        <v>0.9771006892669307</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN10">
-        <v>0.9821763032547071</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO10">
-        <v>0.9849614479387495</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP10">
-        <v>0.9862178092976025</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ10">
-        <v>0.9866836888563694</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR10">
-        <v>0.9942784854025419</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -3526,97 +3526,97 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.0677402955992344</v>
+        <v>0.07290238686154581</v>
       </c>
       <c r="O11">
-        <v>0.06776837346656969</v>
+        <v>0.07290238686154581</v>
       </c>
       <c r="P11">
-        <v>0.2335228688828533</v>
+        <v>0.3351373955145418</v>
       </c>
       <c r="Q11">
-        <v>0.2452525533090186</v>
+        <v>0.3351373955145418</v>
       </c>
       <c r="R11">
-        <v>0.2528174743365552</v>
+        <v>0.3351373955145418</v>
       </c>
       <c r="S11">
-        <v>0.2678896695202612</v>
+        <v>0.3351373955145418</v>
       </c>
       <c r="T11">
-        <v>0.2742880071119705</v>
+        <v>0.3351373955145418</v>
       </c>
       <c r="U11">
-        <v>0.312539065555718</v>
+        <v>0.3510758465820926</v>
       </c>
       <c r="V11">
-        <v>0.3139976533882404</v>
+        <v>0.3510758465820926</v>
       </c>
       <c r="W11">
-        <v>0.3271724602785679</v>
+        <v>0.3510758465820926</v>
       </c>
       <c r="X11">
-        <v>0.4560157628351965</v>
+        <v>0.5420100342253482</v>
       </c>
       <c r="Y11">
-        <v>0.5321460828528851</v>
+        <v>0.6311193107315096</v>
       </c>
       <c r="Z11">
-        <v>0.5461061155466566</v>
+        <v>0.6311193107315096</v>
       </c>
       <c r="AA11">
-        <v>0.5490858643659966</v>
+        <v>0.6311193107315096</v>
       </c>
       <c r="AB11">
-        <v>0.5747485074072515</v>
+        <v>0.6311193107315096</v>
       </c>
       <c r="AC11">
-        <v>0.6448433263677585</v>
+        <v>0.7085698965467894</v>
       </c>
       <c r="AD11">
-        <v>0.6890703506863762</v>
+        <v>0.7360520350487868</v>
       </c>
       <c r="AE11">
-        <v>0.7535253099560325</v>
+        <v>0.8026081849170523</v>
       </c>
       <c r="AF11">
-        <v>0.7550162326634978</v>
+        <v>0.8026081849170523</v>
       </c>
       <c r="AG11">
-        <v>0.8431910657860991</v>
+        <v>0.9149836743659423</v>
       </c>
       <c r="AH11">
-        <v>0.8443153789938309</v>
+        <v>0.9149836743659423</v>
       </c>
       <c r="AI11">
-        <v>0.8870290851786774</v>
+        <v>0.9395425579680757</v>
       </c>
       <c r="AJ11">
-        <v>0.9173272683069211</v>
+        <v>0.9401185540334391</v>
       </c>
       <c r="AK11">
-        <v>0.9783268496509395</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL11">
-        <v>0.9783829123552142</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM11">
-        <v>0.983932975181632</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN11">
-        <v>0.9845468345875019</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO11">
-        <v>0.9848572657103857</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP11">
-        <v>0.9866030207334656</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ11">
-        <v>0.9868568985963896</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR11">
-        <v>0.994041621891294</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS11">
         <v>0.9999999999999999</v>
@@ -3681,34 +3681,34 @@
         <v>45</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>26</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5059744696364649</v>
       </c>
       <c r="F2">
-        <v>0.5509339272509336</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2">
         <v>30</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" t="s">
-        <v>68</v>
       </c>
       <c r="L2" t="s">
         <v>69</v>
@@ -3722,34 +3722,34 @@
         <v>46</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.5162117869340375</v>
+      </c>
+      <c r="F3">
         <v>26</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5341434634054344</v>
-      </c>
       <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
         <v>17</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3">
         <v>30</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" t="s">
-        <v>68</v>
       </c>
       <c r="L3" t="s">
         <v>69</v>
@@ -3763,34 +3763,34 @@
         <v>47</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>11</v>
       </c>
       <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.5743521124533956</v>
+      </c>
+      <c r="F4">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5209450388021754</v>
-      </c>
       <c r="G4">
+        <v>800</v>
+      </c>
+      <c r="H4">
         <v>13</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4">
         <v>30</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
       </c>
       <c r="L4" t="s">
         <v>69</v>
@@ -3804,34 +3804,34 @@
         <v>48</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.5641916960756798</v>
+      </c>
+      <c r="F5">
         <v>16</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5322015519699459</v>
-      </c>
       <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
         <v>14</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5">
         <v>30</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" t="s">
-        <v>68</v>
       </c>
       <c r="L5" t="s">
         <v>69</v>
@@ -3845,34 +3845,34 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.6639863290436436</v>
+      </c>
+      <c r="F6">
         <v>28</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.6021634193377525</v>
-      </c>
       <c r="G6">
+        <v>800</v>
+      </c>
+      <c r="H6">
         <v>17</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6">
         <v>30</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" t="s">
-        <v>68</v>
       </c>
       <c r="L6" t="s">
         <v>69</v>
@@ -3886,34 +3886,34 @@
         <v>50</v>
       </c>
       <c r="B7">
+        <v>0.01971682158635419</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7513706905762089</v>
       </c>
       <c r="F7">
-        <v>0.5004598189159932</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7">
         <v>30</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" t="s">
-        <v>68</v>
       </c>
       <c r="L7" t="s">
         <v>69</v>
@@ -3927,34 +3927,34 @@
         <v>51</v>
       </c>
       <c r="B8">
+        <v>0.001068041096853151</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
+      <c r="E8">
+        <v>0.504281195878288</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
         <v>11</v>
       </c>
-      <c r="D8">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5116091565945073</v>
-      </c>
-      <c r="G8">
-        <v>15</v>
-      </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8">
         <v>30</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" t="s">
-        <v>68</v>
       </c>
       <c r="L8" t="s">
         <v>69</v>
@@ -3968,34 +3968,34 @@
         <v>52</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5584779353250686</v>
       </c>
       <c r="F9">
-        <v>0.5607150297812643</v>
+        <v>23</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9">
         <v>30</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" t="s">
-        <v>68</v>
       </c>
       <c r="L9" t="s">
         <v>69</v>
@@ -4009,34 +4009,34 @@
         <v>53</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5918651408673906</v>
       </c>
       <c r="F10">
-        <v>0.570640890156849</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>800</v>
       </c>
       <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10">
         <v>30</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" t="s">
-        <v>68</v>
       </c>
       <c r="L10" t="s">
         <v>69</v>
@@ -4050,34 +4050,34 @@
         <v>54</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>11</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5420100342253482</v>
       </c>
       <c r="F11">
-        <v>0.5321460828528851</v>
+        <v>23</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>800</v>
       </c>
       <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11">
         <v>30</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" t="s">
-        <v>68</v>
       </c>
       <c r="L11" t="s">
         <v>69</v>
@@ -4145,34 +4145,34 @@
         <v>45</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>28</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.810785374451663</v>
       </c>
       <c r="F2">
-        <v>0.7132547587342688</v>
+        <v>27</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2">
         <v>30</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" t="s">
-        <v>68</v>
       </c>
       <c r="L2" t="s">
         <v>69</v>
@@ -4186,34 +4186,34 @@
         <v>46</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3">
+        <v>0.7</v>
+      </c>
+      <c r="E3">
+        <v>0.7717342943742569</v>
+      </c>
+      <c r="F3">
         <v>30</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.7748027669412104</v>
-      </c>
       <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
         <v>21</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3">
         <v>30</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" t="s">
-        <v>68</v>
       </c>
       <c r="L3" t="s">
         <v>69</v>
@@ -4227,34 +4227,34 @@
         <v>47</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>11</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7177056095584676</v>
       </c>
       <c r="F4">
-        <v>0.7069737257027331</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4">
         <v>30</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
       </c>
       <c r="L4" t="s">
         <v>69</v>
@@ -4268,34 +4268,34 @@
         <v>48</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.705495456369865</v>
       </c>
       <c r="F5">
-        <v>0.7010903233078341</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5">
         <v>30</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" t="s">
-        <v>68</v>
       </c>
       <c r="L5" t="s">
         <v>69</v>
@@ -4309,34 +4309,34 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6">
+        <v>0.7</v>
+      </c>
+      <c r="E6">
+        <v>0.8032708639366181</v>
+      </c>
+      <c r="F6">
         <v>30</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7327379829068598</v>
-      </c>
       <c r="G6">
+        <v>800</v>
+      </c>
+      <c r="H6">
         <v>19</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6">
         <v>30</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" t="s">
-        <v>68</v>
       </c>
       <c r="L6" t="s">
         <v>69</v>
@@ -4350,34 +4350,34 @@
         <v>50</v>
       </c>
       <c r="B7">
+        <v>0.01971682158635419</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.7513706905762089</v>
+      </c>
+      <c r="F7">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>800</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7">
         <v>30</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.7571393430608303</v>
-      </c>
-      <c r="G7">
-        <v>19</v>
-      </c>
-      <c r="H7">
-        <v>30</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" t="s">
-        <v>68</v>
       </c>
       <c r="L7" t="s">
         <v>69</v>
@@ -4391,34 +4391,34 @@
         <v>51</v>
       </c>
       <c r="B8">
+        <v>0.001068041096853151</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.7661545021907529</v>
+      </c>
+      <c r="F8">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8">
         <v>30</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7376576156676596</v>
-      </c>
-      <c r="G8">
-        <v>19</v>
-      </c>
-      <c r="H8">
-        <v>30</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" t="s">
-        <v>68</v>
       </c>
       <c r="L8" t="s">
         <v>69</v>
@@ -4432,34 +4432,34 @@
         <v>52</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7434640667500163</v>
       </c>
       <c r="F9">
-        <v>0.7256602820751366</v>
+        <v>28</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9">
         <v>30</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" t="s">
-        <v>68</v>
       </c>
       <c r="L9" t="s">
         <v>69</v>
@@ -4473,34 +4473,34 @@
         <v>53</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7738191660045961</v>
       </c>
       <c r="F10">
-        <v>0.733462833800703</v>
+        <v>28</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10">
         <v>30</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" t="s">
-        <v>68</v>
       </c>
       <c r="L10" t="s">
         <v>69</v>
@@ -4514,34 +4514,34 @@
         <v>54</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>11</v>
       </c>
       <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>0.7085698965467894</v>
+      </c>
+      <c r="F11">
+        <v>28</v>
+      </c>
+      <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11">
         <v>30</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.7535253099560325</v>
-      </c>
-      <c r="G11">
-        <v>19</v>
-      </c>
-      <c r="H11">
-        <v>30</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" t="s">
-        <v>68</v>
       </c>
       <c r="L11" t="s">
         <v>69</v>
@@ -4609,34 +4609,34 @@
         <v>45</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.810785374451663</v>
+      </c>
+      <c r="F2">
+        <v>27</v>
+      </c>
+      <c r="G2">
+        <v>800</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2">
         <v>30</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8192736445400822</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" t="s">
-        <v>68</v>
       </c>
       <c r="L2" t="s">
         <v>69</v>
@@ -4650,34 +4650,34 @@
         <v>46</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3">
+        <v>0.8</v>
+      </c>
+      <c r="E3">
+        <v>0.8846311690180195</v>
+      </c>
+      <c r="F3">
         <v>32</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.863695974604291</v>
-      </c>
       <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
         <v>23</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3">
         <v>30</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" t="s">
-        <v>68</v>
       </c>
       <c r="L3" t="s">
         <v>69</v>
@@ -4691,34 +4691,34 @@
         <v>47</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>11</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8200234113608038</v>
       </c>
       <c r="F4">
-        <v>0.8605244795441133</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4">
         <v>30</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
       </c>
       <c r="L4" t="s">
         <v>69</v>
@@ -4732,34 +4732,34 @@
         <v>48</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.8</v>
+      </c>
+      <c r="E5">
+        <v>0.891040128798765</v>
+      </c>
+      <c r="F5">
         <v>26</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8741112195078442</v>
-      </c>
       <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
         <v>24</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5">
         <v>30</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" t="s">
-        <v>68</v>
       </c>
       <c r="L5" t="s">
         <v>69</v>
@@ -4773,34 +4773,34 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8032708639366181</v>
       </c>
       <c r="F6">
-        <v>0.8252819266915121</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6">
         <v>30</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" t="s">
-        <v>68</v>
       </c>
       <c r="L6" t="s">
         <v>69</v>
@@ -4814,34 +4814,34 @@
         <v>50</v>
       </c>
       <c r="B7">
+        <v>0.01971682158635419</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>32</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8421367400185489</v>
       </c>
       <c r="F7">
-        <v>0.8563849109342154</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7">
         <v>30</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" t="s">
-        <v>68</v>
       </c>
       <c r="L7" t="s">
         <v>69</v>
@@ -4855,34 +4855,34 @@
         <v>51</v>
       </c>
       <c r="B8">
+        <v>0.001068041096853151</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>32</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8205033086594599</v>
       </c>
       <c r="F8">
-        <v>0.8300867039784954</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="H8">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8">
         <v>30</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" t="s">
-        <v>68</v>
       </c>
       <c r="L8" t="s">
         <v>69</v>
@@ -4896,34 +4896,34 @@
         <v>52</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>0.8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8306557779598901</v>
       </c>
       <c r="F9">
-        <v>0.8693094055445589</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9">
         <v>30</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" t="s">
-        <v>68</v>
       </c>
       <c r="L9" t="s">
         <v>69</v>
@@ -4937,34 +4937,34 @@
         <v>53</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8018790930161444</v>
       </c>
       <c r="F10">
-        <v>0.8661651580200977</v>
+        <v>29</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10">
         <v>30</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" t="s">
-        <v>68</v>
       </c>
       <c r="L10" t="s">
         <v>69</v>
@@ -4978,34 +4978,34 @@
         <v>54</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>11</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8026081849170523</v>
       </c>
       <c r="F11">
-        <v>0.8431910657860991</v>
+        <v>30</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="H11">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11">
         <v>30</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" t="s">
-        <v>68</v>
       </c>
       <c r="L11" t="s">
         <v>69</v>
@@ -5073,34 +5073,34 @@
         <v>45</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>34</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9072816532360998</v>
       </c>
       <c r="F2">
-        <v>0.9563897155910269</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2">
         <v>30</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" t="s">
-        <v>68</v>
       </c>
       <c r="L2" t="s">
         <v>69</v>
@@ -5114,34 +5114,34 @@
         <v>46</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3">
+        <v>0.9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>34</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9574565588386157</v>
-      </c>
       <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
         <v>25</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3">
         <v>30</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" t="s">
-        <v>68</v>
       </c>
       <c r="L3" t="s">
         <v>69</v>
@@ -5155,34 +5155,34 @@
         <v>47</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>11</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9411892448679127</v>
       </c>
       <c r="F4">
-        <v>0.9178781195107646</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4">
         <v>30</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
       </c>
       <c r="L4" t="s">
         <v>69</v>
@@ -5196,34 +5196,34 @@
         <v>48</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.9</v>
+      </c>
+      <c r="E5">
+        <v>0.9992603542513624</v>
+      </c>
+      <c r="F5">
         <v>27</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9579781216501249</v>
-      </c>
       <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
         <v>25</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5">
         <v>30</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" t="s">
-        <v>68</v>
       </c>
       <c r="L5" t="s">
         <v>69</v>
@@ -5237,34 +5237,34 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9228549628946963</v>
       </c>
       <c r="F6">
-        <v>0.9219792640409131</v>
+        <v>32</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6">
         <v>30</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" t="s">
-        <v>68</v>
       </c>
       <c r="L6" t="s">
         <v>69</v>
@@ -5278,34 +5278,34 @@
         <v>50</v>
       </c>
       <c r="B7">
+        <v>0.01971682158635419</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>35</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9216265191117902</v>
       </c>
       <c r="F7">
-        <v>0.9520660245216808</v>
+        <v>32</v>
       </c>
       <c r="G7">
-        <v>24</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7">
         <v>30</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" t="s">
-        <v>68</v>
       </c>
       <c r="L7" t="s">
         <v>69</v>
@@ -5319,34 +5319,34 @@
         <v>51</v>
       </c>
       <c r="B8">
+        <v>0.001068041096853151</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>35</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9044064143194719</v>
       </c>
       <c r="F8">
-        <v>0.9433095459957254</v>
+        <v>33</v>
       </c>
       <c r="G8">
-        <v>24</v>
+        <v>800</v>
       </c>
       <c r="H8">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8">
         <v>30</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" t="s">
-        <v>68</v>
       </c>
       <c r="L8" t="s">
         <v>69</v>
@@ -5360,34 +5360,34 @@
         <v>52</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.924342585358359</v>
       </c>
       <c r="F9">
-        <v>0.9138725167443976</v>
+        <v>32</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9">
         <v>30</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" t="s">
-        <v>68</v>
       </c>
       <c r="L9" t="s">
         <v>69</v>
@@ -5401,34 +5401,34 @@
         <v>53</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9325794765234939</v>
       </c>
       <c r="F10">
-        <v>0.9094723375956381</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>23</v>
+        <v>800</v>
       </c>
       <c r="H10">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10">
         <v>30</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" t="s">
-        <v>68</v>
       </c>
       <c r="L10" t="s">
         <v>69</v>
@@ -5442,34 +5442,34 @@
         <v>54</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>11</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9149836743659423</v>
       </c>
       <c r="F11">
-        <v>0.9173272683069211</v>
+        <v>32</v>
       </c>
       <c r="G11">
-        <v>24</v>
+        <v>800</v>
       </c>
       <c r="H11">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11">
         <v>30</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" t="s">
-        <v>68</v>
       </c>
       <c r="L11" t="s">
         <v>69</v>
